--- a/labelling.xlsx
+++ b/labelling.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Storage/BrainScanMotionDetection/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{A33FE9AC-7FB2-3A42-8583-9CA196D51123}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD55F999-7417-7C4B-99CB-AC24E3ADCF19}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="22840" windowHeight="17440"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="20260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="labelling" sheetId="1" r:id="rId1"/>
@@ -39,9 +39,6 @@
     <t>Bad Diffusion Volumes</t>
   </si>
   <si>
-    <t>Name</t>
-  </si>
-  <si>
     <t>CL_DEV_008</t>
   </si>
   <si>
@@ -1885,12 +1882,15 @@
   </si>
   <si>
     <t>Filename</t>
+  </si>
+  <si>
+    <t>Labeller</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -2724,11 +2724,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G292"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2742,19 +2742,19 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>613</v>
+      </c>
+      <c r="D1" t="s">
         <v>614</v>
       </c>
-      <c r="D1" t="s">
-        <v>615</v>
-      </c>
       <c r="E1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="F1" t="s">
         <v>1</v>
       </c>
       <c r="G1" t="s">
-        <v>2</v>
+        <v>617</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -2762,22 +2762,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2">
         <v>10117</v>
       </c>
       <c r="D2" t="s">
+        <v>522</v>
+      </c>
+      <c r="E2" t="s">
         <v>523</v>
-      </c>
-      <c r="E2" t="s">
-        <v>524</v>
       </c>
       <c r="F2">
         <v>17</v>
       </c>
       <c r="G2" t="s">
-        <v>4</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -2785,19 +2785,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>615</v>
+      </c>
+      <c r="D3" t="s">
+        <v>615</v>
+      </c>
+      <c r="F3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
-        <v>616</v>
-      </c>
-      <c r="D3" t="s">
-        <v>616</v>
-      </c>
-      <c r="F3" t="s">
-        <v>6</v>
-      </c>
       <c r="G3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -2805,19 +2805,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D4" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F4">
         <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -2825,22 +2825,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5">
         <v>10136</v>
       </c>
       <c r="D5" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E5" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G5" t="s">
-        <v>4</v>
+        <v>262</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -2848,22 +2848,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6">
         <v>10136</v>
       </c>
       <c r="D6" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E6" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G6" t="s">
-        <v>4</v>
+        <v>262</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -2871,22 +2871,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7">
         <v>10136</v>
       </c>
       <c r="D7" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E7" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G7" t="s">
-        <v>4</v>
+        <v>262</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -2894,22 +2894,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8">
         <v>10117</v>
       </c>
       <c r="D8" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E8" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G8" t="s">
-        <v>4</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -2917,22 +2917,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9">
         <v>10117</v>
       </c>
       <c r="D9" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E9" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="F9">
         <v>31</v>
       </c>
       <c r="G9" t="s">
-        <v>4</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -2940,22 +2940,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10">
         <v>10136</v>
       </c>
       <c r="D10" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E10" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="F10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G10" t="s">
-        <v>4</v>
+        <v>262</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -2963,22 +2963,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11">
         <v>10136</v>
       </c>
       <c r="D11" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E11" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="F11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G11" t="s">
-        <v>4</v>
+        <v>262</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -2986,22 +2986,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C12">
         <v>10136</v>
       </c>
       <c r="D12" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E12" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="F12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G12" t="s">
-        <v>4</v>
+        <v>262</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -3009,22 +3009,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C13">
         <v>10166</v>
       </c>
       <c r="D13" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E13" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="F13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G13" t="s">
-        <v>4</v>
+        <v>262</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -3032,22 +3032,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14">
         <v>10117</v>
       </c>
       <c r="D14" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E14" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="F14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G14" t="s">
-        <v>4</v>
+        <v>262</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -3055,22 +3055,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C15">
         <v>10117</v>
       </c>
       <c r="D15" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E15" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="F15">
         <v>34</v>
       </c>
       <c r="G15" t="s">
-        <v>4</v>
+        <v>262</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -3078,22 +3078,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C16">
         <v>10136</v>
       </c>
       <c r="D16" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E16" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="F16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G16" t="s">
-        <v>4</v>
+        <v>262</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -3101,19 +3101,19 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" t="s">
+        <v>615</v>
+      </c>
+      <c r="D17" t="s">
+        <v>615</v>
+      </c>
+      <c r="F17" t="s">
         <v>30</v>
       </c>
-      <c r="C17" t="s">
-        <v>616</v>
-      </c>
-      <c r="D17" t="s">
-        <v>616</v>
-      </c>
-      <c r="F17" t="s">
-        <v>31</v>
-      </c>
       <c r="G17" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -3121,19 +3121,19 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" t="s">
+        <v>615</v>
+      </c>
+      <c r="D18" t="s">
+        <v>615</v>
+      </c>
+      <c r="F18" t="s">
         <v>32</v>
       </c>
-      <c r="C18" t="s">
-        <v>616</v>
-      </c>
-      <c r="D18" t="s">
-        <v>616</v>
-      </c>
-      <c r="F18" t="s">
-        <v>33</v>
-      </c>
       <c r="G18" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -3141,19 +3141,19 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C19" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D19" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F19">
         <v>10</v>
       </c>
       <c r="G19" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -3161,19 +3161,19 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" t="s">
+        <v>615</v>
+      </c>
+      <c r="D20" t="s">
+        <v>615</v>
+      </c>
+      <c r="F20" t="s">
         <v>35</v>
       </c>
-      <c r="C20" t="s">
-        <v>616</v>
-      </c>
-      <c r="D20" t="s">
-        <v>616</v>
-      </c>
-      <c r="F20" t="s">
-        <v>36</v>
-      </c>
       <c r="G20" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -3181,19 +3181,19 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" t="s">
+        <v>615</v>
+      </c>
+      <c r="D21" t="s">
+        <v>615</v>
+      </c>
+      <c r="F21" t="s">
         <v>37</v>
       </c>
-      <c r="C21" t="s">
-        <v>616</v>
-      </c>
-      <c r="D21" t="s">
-        <v>616</v>
-      </c>
-      <c r="F21" t="s">
-        <v>38</v>
-      </c>
       <c r="G21" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
@@ -3201,19 +3201,19 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" t="s">
+        <v>615</v>
+      </c>
+      <c r="D22" t="s">
+        <v>615</v>
+      </c>
+      <c r="F22" t="s">
         <v>39</v>
       </c>
-      <c r="C22" t="s">
-        <v>616</v>
-      </c>
-      <c r="D22" t="s">
-        <v>616</v>
-      </c>
-      <c r="F22" t="s">
-        <v>40</v>
-      </c>
       <c r="G22" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
@@ -3221,19 +3221,19 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C23" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D23" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F23">
         <v>27</v>
       </c>
       <c r="G23" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
@@ -3241,19 +3241,19 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C24" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D24" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F24">
         <v>23</v>
       </c>
       <c r="G24" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
@@ -3261,19 +3261,19 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" t="s">
+        <v>615</v>
+      </c>
+      <c r="D25" t="s">
+        <v>615</v>
+      </c>
+      <c r="F25" t="s">
         <v>43</v>
       </c>
-      <c r="C25" t="s">
-        <v>616</v>
-      </c>
-      <c r="D25" t="s">
-        <v>616</v>
-      </c>
-      <c r="F25" t="s">
-        <v>44</v>
-      </c>
       <c r="G25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
@@ -3281,19 +3281,19 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" t="s">
+        <v>615</v>
+      </c>
+      <c r="D26" t="s">
+        <v>615</v>
+      </c>
+      <c r="F26" t="s">
         <v>45</v>
       </c>
-      <c r="C26" t="s">
-        <v>616</v>
-      </c>
-      <c r="D26" t="s">
-        <v>616</v>
-      </c>
-      <c r="F26" t="s">
-        <v>46</v>
-      </c>
       <c r="G26" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
@@ -3301,19 +3301,19 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" t="s">
+        <v>615</v>
+      </c>
+      <c r="D27" t="s">
+        <v>615</v>
+      </c>
+      <c r="F27" t="s">
         <v>47</v>
       </c>
-      <c r="C27" t="s">
-        <v>616</v>
-      </c>
-      <c r="D27" t="s">
-        <v>616</v>
-      </c>
-      <c r="F27" t="s">
-        <v>48</v>
-      </c>
       <c r="G27" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
@@ -3321,22 +3321,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C28">
         <v>10002</v>
       </c>
       <c r="D28" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E28" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G28" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
@@ -3344,19 +3344,19 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" t="s">
+        <v>615</v>
+      </c>
+      <c r="D29" t="s">
+        <v>615</v>
+      </c>
+      <c r="F29" t="s">
         <v>51</v>
       </c>
-      <c r="C29" t="s">
-        <v>616</v>
-      </c>
-      <c r="D29" t="s">
-        <v>616</v>
-      </c>
-      <c r="F29" t="s">
-        <v>52</v>
-      </c>
       <c r="G29" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
@@ -3364,19 +3364,19 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30" t="s">
+        <v>615</v>
+      </c>
+      <c r="D30" t="s">
+        <v>615</v>
+      </c>
+      <c r="F30" t="s">
         <v>53</v>
       </c>
-      <c r="C30" t="s">
-        <v>616</v>
-      </c>
-      <c r="D30" t="s">
-        <v>616</v>
-      </c>
-      <c r="F30" t="s">
-        <v>54</v>
-      </c>
       <c r="G30" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
@@ -3384,19 +3384,19 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
+        <v>54</v>
+      </c>
+      <c r="C31" t="s">
+        <v>615</v>
+      </c>
+      <c r="D31" t="s">
+        <v>615</v>
+      </c>
+      <c r="F31" t="s">
         <v>55</v>
       </c>
-      <c r="C31" t="s">
-        <v>616</v>
-      </c>
-      <c r="D31" t="s">
-        <v>616</v>
-      </c>
-      <c r="F31" t="s">
-        <v>56</v>
-      </c>
       <c r="G31" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
@@ -3404,19 +3404,19 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
+        <v>56</v>
+      </c>
+      <c r="C32" t="s">
+        <v>615</v>
+      </c>
+      <c r="D32" t="s">
+        <v>615</v>
+      </c>
+      <c r="F32" t="s">
         <v>57</v>
       </c>
-      <c r="C32" t="s">
-        <v>616</v>
-      </c>
-      <c r="D32" t="s">
-        <v>616</v>
-      </c>
-      <c r="F32" t="s">
-        <v>58</v>
-      </c>
       <c r="G32" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
@@ -3424,22 +3424,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C33">
         <v>10008</v>
       </c>
       <c r="D33" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E33" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F33" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G33" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
@@ -3447,22 +3447,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C34">
         <v>10009</v>
       </c>
       <c r="D34" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E34" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="F34" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G34" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
@@ -3470,19 +3470,19 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
+        <v>62</v>
+      </c>
+      <c r="C35" t="s">
+        <v>615</v>
+      </c>
+      <c r="D35" t="s">
+        <v>615</v>
+      </c>
+      <c r="F35" t="s">
         <v>63</v>
       </c>
-      <c r="C35" t="s">
-        <v>616</v>
-      </c>
-      <c r="D35" t="s">
-        <v>616</v>
-      </c>
-      <c r="F35" t="s">
-        <v>64</v>
-      </c>
       <c r="G35" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
@@ -3490,22 +3490,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C36">
         <v>10001</v>
       </c>
       <c r="D36" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E36" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="F36" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G36" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
@@ -3513,22 +3513,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C37">
         <v>10002</v>
       </c>
       <c r="D37" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E37" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="F37" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G37" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
@@ -3536,19 +3536,19 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
+        <v>68</v>
+      </c>
+      <c r="C38" t="s">
+        <v>615</v>
+      </c>
+      <c r="D38" t="s">
+        <v>615</v>
+      </c>
+      <c r="F38" t="s">
         <v>69</v>
       </c>
-      <c r="C38" t="s">
-        <v>616</v>
-      </c>
-      <c r="D38" t="s">
-        <v>616</v>
-      </c>
-      <c r="F38" t="s">
-        <v>70</v>
-      </c>
       <c r="G38" t="s">
-        <v>4</v>
+        <v>94</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
@@ -3556,19 +3556,19 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
+        <v>70</v>
+      </c>
+      <c r="C39" t="s">
+        <v>615</v>
+      </c>
+      <c r="D39" t="s">
+        <v>615</v>
+      </c>
+      <c r="F39" t="s">
         <v>71</v>
       </c>
-      <c r="C39" t="s">
-        <v>616</v>
-      </c>
-      <c r="D39" t="s">
-        <v>616</v>
-      </c>
-      <c r="F39" t="s">
-        <v>72</v>
-      </c>
       <c r="G39" t="s">
-        <v>4</v>
+        <v>94</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
@@ -3576,19 +3576,19 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
+        <v>72</v>
+      </c>
+      <c r="C40" t="s">
+        <v>615</v>
+      </c>
+      <c r="D40" t="s">
+        <v>615</v>
+      </c>
+      <c r="F40" t="s">
         <v>73</v>
       </c>
-      <c r="C40" t="s">
-        <v>616</v>
-      </c>
-      <c r="D40" t="s">
-        <v>616</v>
-      </c>
-      <c r="F40" t="s">
-        <v>74</v>
-      </c>
       <c r="G40" t="s">
-        <v>4</v>
+        <v>94</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
@@ -3596,22 +3596,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C41">
         <v>10022</v>
       </c>
       <c r="D41" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E41" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="F41" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G41" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
@@ -3619,19 +3619,19 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
+        <v>76</v>
+      </c>
+      <c r="C42" t="s">
+        <v>615</v>
+      </c>
+      <c r="D42" t="s">
+        <v>615</v>
+      </c>
+      <c r="F42" t="s">
         <v>77</v>
       </c>
-      <c r="C42" t="s">
-        <v>616</v>
-      </c>
-      <c r="D42" t="s">
-        <v>616</v>
-      </c>
-      <c r="F42" t="s">
-        <v>78</v>
-      </c>
       <c r="G42" t="s">
-        <v>4</v>
+        <v>94</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
@@ -3639,19 +3639,19 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
+        <v>78</v>
+      </c>
+      <c r="C43" t="s">
+        <v>615</v>
+      </c>
+      <c r="D43" t="s">
+        <v>615</v>
+      </c>
+      <c r="F43" t="s">
         <v>79</v>
       </c>
-      <c r="C43" t="s">
-        <v>616</v>
-      </c>
-      <c r="D43" t="s">
-        <v>616</v>
-      </c>
-      <c r="F43" t="s">
-        <v>80</v>
-      </c>
       <c r="G43" t="s">
-        <v>4</v>
+        <v>94</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
@@ -3659,19 +3659,19 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
+        <v>80</v>
+      </c>
+      <c r="C44" t="s">
+        <v>615</v>
+      </c>
+      <c r="D44" t="s">
+        <v>615</v>
+      </c>
+      <c r="F44" t="s">
         <v>81</v>
       </c>
-      <c r="C44" t="s">
-        <v>616</v>
-      </c>
-      <c r="D44" t="s">
-        <v>616</v>
-      </c>
-      <c r="F44" t="s">
-        <v>82</v>
-      </c>
       <c r="G44" t="s">
-        <v>4</v>
+        <v>94</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
@@ -3679,19 +3679,19 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
+        <v>82</v>
+      </c>
+      <c r="C45" t="s">
+        <v>615</v>
+      </c>
+      <c r="D45" t="s">
+        <v>615</v>
+      </c>
+      <c r="F45" t="s">
         <v>83</v>
       </c>
-      <c r="C45" t="s">
-        <v>616</v>
-      </c>
-      <c r="D45" t="s">
-        <v>616</v>
-      </c>
-      <c r="F45" t="s">
-        <v>84</v>
-      </c>
       <c r="G45" t="s">
-        <v>4</v>
+        <v>94</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
@@ -3699,19 +3699,19 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
+        <v>84</v>
+      </c>
+      <c r="C46" t="s">
+        <v>615</v>
+      </c>
+      <c r="D46" t="s">
+        <v>615</v>
+      </c>
+      <c r="F46" t="s">
         <v>85</v>
       </c>
-      <c r="C46" t="s">
-        <v>616</v>
-      </c>
-      <c r="D46" t="s">
-        <v>616</v>
-      </c>
-      <c r="F46" t="s">
-        <v>86</v>
-      </c>
       <c r="G46" t="s">
-        <v>4</v>
+        <v>94</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
@@ -3719,22 +3719,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C47">
         <v>10042</v>
       </c>
       <c r="D47" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E47" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="F47" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G47" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
@@ -3742,19 +3742,19 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
+        <v>88</v>
+      </c>
+      <c r="C48" t="s">
+        <v>615</v>
+      </c>
+      <c r="D48" t="s">
+        <v>615</v>
+      </c>
+      <c r="F48" t="s">
         <v>89</v>
       </c>
-      <c r="C48" t="s">
-        <v>616</v>
-      </c>
-      <c r="D48" t="s">
-        <v>616</v>
-      </c>
-      <c r="F48" t="s">
-        <v>90</v>
-      </c>
       <c r="G48" t="s">
-        <v>4</v>
+        <v>94</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
@@ -3762,19 +3762,19 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
+        <v>90</v>
+      </c>
+      <c r="C49" t="s">
+        <v>615</v>
+      </c>
+      <c r="D49" t="s">
+        <v>615</v>
+      </c>
+      <c r="F49" t="s">
         <v>91</v>
       </c>
-      <c r="C49" t="s">
-        <v>616</v>
-      </c>
-      <c r="D49" t="s">
-        <v>616</v>
-      </c>
-      <c r="F49" t="s">
-        <v>92</v>
-      </c>
       <c r="G49" t="s">
-        <v>4</v>
+        <v>94</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
@@ -3782,19 +3782,19 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
+        <v>92</v>
+      </c>
+      <c r="C50" t="s">
+        <v>615</v>
+      </c>
+      <c r="D50" t="s">
+        <v>615</v>
+      </c>
+      <c r="F50" t="s">
         <v>93</v>
       </c>
-      <c r="C50" t="s">
-        <v>616</v>
-      </c>
-      <c r="D50" t="s">
-        <v>616</v>
-      </c>
-      <c r="F50" t="s">
+      <c r="G50" t="s">
         <v>94</v>
-      </c>
-      <c r="G50" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
@@ -3802,19 +3802,19 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
+        <v>95</v>
+      </c>
+      <c r="C51" t="s">
+        <v>615</v>
+      </c>
+      <c r="D51" t="s">
+        <v>615</v>
+      </c>
+      <c r="F51" t="s">
         <v>96</v>
       </c>
-      <c r="C51" t="s">
-        <v>616</v>
-      </c>
-      <c r="D51" t="s">
-        <v>616</v>
-      </c>
-      <c r="F51" t="s">
-        <v>97</v>
-      </c>
       <c r="G51" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
@@ -3822,19 +3822,19 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
+        <v>97</v>
+      </c>
+      <c r="C52" t="s">
+        <v>615</v>
+      </c>
+      <c r="D52" t="s">
+        <v>615</v>
+      </c>
+      <c r="F52" t="s">
         <v>98</v>
       </c>
-      <c r="C52" t="s">
-        <v>616</v>
-      </c>
-      <c r="D52" t="s">
-        <v>616</v>
-      </c>
-      <c r="F52" t="s">
-        <v>99</v>
-      </c>
       <c r="G52" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
@@ -3842,19 +3842,19 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
+        <v>99</v>
+      </c>
+      <c r="C53" t="s">
+        <v>615</v>
+      </c>
+      <c r="D53" t="s">
+        <v>615</v>
+      </c>
+      <c r="F53" t="s">
         <v>100</v>
       </c>
-      <c r="C53" t="s">
-        <v>616</v>
-      </c>
-      <c r="D53" t="s">
-        <v>616</v>
-      </c>
-      <c r="F53" t="s">
-        <v>101</v>
-      </c>
       <c r="G53" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
@@ -3862,19 +3862,19 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
+        <v>101</v>
+      </c>
+      <c r="C54" t="s">
+        <v>615</v>
+      </c>
+      <c r="D54" t="s">
+        <v>615</v>
+      </c>
+      <c r="F54" t="s">
         <v>102</v>
       </c>
-      <c r="C54" t="s">
-        <v>616</v>
-      </c>
-      <c r="D54" t="s">
-        <v>616</v>
-      </c>
-      <c r="F54" t="s">
-        <v>103</v>
-      </c>
       <c r="G54" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
@@ -3882,22 +3882,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C55">
         <v>10051</v>
       </c>
       <c r="D55" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E55" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="F55" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G55" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
@@ -3905,22 +3905,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C56">
         <v>10006</v>
       </c>
       <c r="D56" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E56" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="F56" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G56" t="s">
-        <v>95</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
@@ -3928,22 +3928,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C57">
         <v>10007</v>
       </c>
       <c r="D57" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E57" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="F57" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G57" t="s">
-        <v>95</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
@@ -3951,19 +3951,19 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
+        <v>108</v>
+      </c>
+      <c r="C58" t="s">
+        <v>615</v>
+      </c>
+      <c r="D58" t="s">
+        <v>615</v>
+      </c>
+      <c r="F58" t="s">
         <v>109</v>
       </c>
-      <c r="C58" t="s">
-        <v>616</v>
-      </c>
-      <c r="D58" t="s">
-        <v>616</v>
-      </c>
-      <c r="F58" t="s">
-        <v>110</v>
-      </c>
       <c r="G58" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
@@ -3971,19 +3971,19 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
+        <v>110</v>
+      </c>
+      <c r="C59" t="s">
+        <v>615</v>
+      </c>
+      <c r="D59" t="s">
+        <v>615</v>
+      </c>
+      <c r="F59" t="s">
         <v>111</v>
       </c>
-      <c r="C59" t="s">
-        <v>616</v>
-      </c>
-      <c r="D59" t="s">
-        <v>616</v>
-      </c>
-      <c r="F59" t="s">
-        <v>112</v>
-      </c>
       <c r="G59" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
@@ -3991,19 +3991,19 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
+        <v>112</v>
+      </c>
+      <c r="C60" t="s">
+        <v>615</v>
+      </c>
+      <c r="D60" t="s">
+        <v>615</v>
+      </c>
+      <c r="F60" t="s">
         <v>113</v>
       </c>
-      <c r="C60" t="s">
-        <v>616</v>
-      </c>
-      <c r="D60" t="s">
-        <v>616</v>
-      </c>
-      <c r="F60" t="s">
-        <v>114</v>
-      </c>
       <c r="G60" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
@@ -4011,22 +4011,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C61">
         <v>10061</v>
       </c>
       <c r="D61" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E61" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="F61" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G61" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
@@ -4034,22 +4034,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C62">
         <v>10066</v>
       </c>
       <c r="D62" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E62" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="F62" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G62" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
@@ -4057,19 +4057,19 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
+        <v>118</v>
+      </c>
+      <c r="C63" t="s">
+        <v>615</v>
+      </c>
+      <c r="D63" t="s">
+        <v>615</v>
+      </c>
+      <c r="F63" t="s">
         <v>119</v>
       </c>
-      <c r="C63" t="s">
-        <v>616</v>
-      </c>
-      <c r="D63" t="s">
-        <v>616</v>
-      </c>
-      <c r="F63" t="s">
-        <v>120</v>
-      </c>
       <c r="G63" t="s">
-        <v>95</v>
+        <v>262</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
@@ -4077,19 +4077,19 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
+        <v>120</v>
+      </c>
+      <c r="C64" t="s">
+        <v>615</v>
+      </c>
+      <c r="D64" t="s">
+        <v>615</v>
+      </c>
+      <c r="F64" t="s">
         <v>121</v>
       </c>
-      <c r="C64" t="s">
-        <v>616</v>
-      </c>
-      <c r="D64" t="s">
-        <v>616</v>
-      </c>
-      <c r="F64" t="s">
-        <v>122</v>
-      </c>
       <c r="G64" t="s">
-        <v>95</v>
+        <v>262</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
@@ -4097,19 +4097,19 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C65" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D65" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F65">
         <v>2</v>
       </c>
       <c r="G65" t="s">
-        <v>95</v>
+        <v>262</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
@@ -4117,19 +4117,19 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
+        <v>123</v>
+      </c>
+      <c r="C66" t="s">
+        <v>615</v>
+      </c>
+      <c r="D66" t="s">
+        <v>615</v>
+      </c>
+      <c r="F66" t="s">
         <v>124</v>
       </c>
-      <c r="C66" t="s">
-        <v>616</v>
-      </c>
-      <c r="D66" t="s">
-        <v>616</v>
-      </c>
-      <c r="F66" t="s">
-        <v>125</v>
-      </c>
       <c r="G66" t="s">
-        <v>95</v>
+        <v>262</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
@@ -4137,22 +4137,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C67">
         <v>10044</v>
       </c>
       <c r="D67" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E67" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="F67" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G67" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
@@ -4160,19 +4160,19 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C68" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D68" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F68">
         <v>14</v>
       </c>
       <c r="G68" t="s">
-        <v>95</v>
+        <v>262</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
@@ -4180,19 +4180,19 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C69" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D69" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F69">
         <v>9</v>
       </c>
       <c r="G69" t="s">
-        <v>95</v>
+        <v>262</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
@@ -4200,19 +4200,19 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
+        <v>129</v>
+      </c>
+      <c r="C70" t="s">
+        <v>615</v>
+      </c>
+      <c r="D70" t="s">
+        <v>615</v>
+      </c>
+      <c r="F70" t="s">
         <v>130</v>
       </c>
-      <c r="C70" t="s">
-        <v>616</v>
-      </c>
-      <c r="D70" t="s">
-        <v>616</v>
-      </c>
-      <c r="F70" t="s">
-        <v>131</v>
-      </c>
       <c r="G70" t="s">
-        <v>95</v>
+        <v>262</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
@@ -4220,19 +4220,19 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
+        <v>131</v>
+      </c>
+      <c r="C71" t="s">
+        <v>615</v>
+      </c>
+      <c r="D71" t="s">
+        <v>615</v>
+      </c>
+      <c r="F71" t="s">
         <v>132</v>
       </c>
-      <c r="C71" t="s">
-        <v>616</v>
-      </c>
-      <c r="D71" t="s">
-        <v>616</v>
-      </c>
-      <c r="F71" t="s">
-        <v>133</v>
-      </c>
       <c r="G71" t="s">
-        <v>95</v>
+        <v>262</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
@@ -4240,19 +4240,19 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
+        <v>133</v>
+      </c>
+      <c r="C72" t="s">
+        <v>615</v>
+      </c>
+      <c r="D72" t="s">
+        <v>615</v>
+      </c>
+      <c r="F72" t="s">
         <v>134</v>
       </c>
-      <c r="C72" t="s">
-        <v>616</v>
-      </c>
-      <c r="D72" t="s">
-        <v>616</v>
-      </c>
-      <c r="F72" t="s">
-        <v>135</v>
-      </c>
       <c r="G72" t="s">
-        <v>95</v>
+        <v>262</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
@@ -4260,19 +4260,19 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
+        <v>135</v>
+      </c>
+      <c r="C73" t="s">
+        <v>615</v>
+      </c>
+      <c r="D73" t="s">
+        <v>615</v>
+      </c>
+      <c r="F73" t="s">
         <v>136</v>
       </c>
-      <c r="C73" t="s">
-        <v>616</v>
-      </c>
-      <c r="D73" t="s">
-        <v>616</v>
-      </c>
-      <c r="F73" t="s">
-        <v>137</v>
-      </c>
       <c r="G73" t="s">
-        <v>95</v>
+        <v>262</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
@@ -4280,19 +4280,19 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
+        <v>137</v>
+      </c>
+      <c r="C74" t="s">
+        <v>615</v>
+      </c>
+      <c r="D74" t="s">
+        <v>615</v>
+      </c>
+      <c r="F74" t="s">
         <v>138</v>
       </c>
-      <c r="C74" t="s">
-        <v>616</v>
-      </c>
-      <c r="D74" t="s">
-        <v>616</v>
-      </c>
-      <c r="F74" t="s">
-        <v>139</v>
-      </c>
       <c r="G74" t="s">
-        <v>95</v>
+        <v>262</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
@@ -4300,19 +4300,19 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C75" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D75" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F75">
         <v>2</v>
       </c>
       <c r="G75" t="s">
-        <v>95</v>
+        <v>262</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
@@ -4320,19 +4320,19 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C76" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D76" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F76">
         <v>23</v>
       </c>
       <c r="G76" t="s">
-        <v>95</v>
+        <v>262</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
@@ -4340,19 +4340,19 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
+        <v>141</v>
+      </c>
+      <c r="C77" t="s">
+        <v>615</v>
+      </c>
+      <c r="D77" t="s">
+        <v>615</v>
+      </c>
+      <c r="F77" t="s">
         <v>142</v>
       </c>
-      <c r="C77" t="s">
-        <v>616</v>
-      </c>
-      <c r="D77" t="s">
-        <v>616</v>
-      </c>
-      <c r="F77" t="s">
-        <v>143</v>
-      </c>
       <c r="G77" t="s">
-        <v>95</v>
+        <v>262</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
@@ -4360,19 +4360,19 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C78" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D78" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F78">
         <v>23</v>
       </c>
       <c r="G78" t="s">
-        <v>95</v>
+        <v>262</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
@@ -4380,19 +4380,19 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C79" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D79" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F79">
         <v>34</v>
       </c>
       <c r="G79" t="s">
-        <v>95</v>
+        <v>262</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
@@ -4400,19 +4400,19 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C80" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D80" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F80">
         <v>27</v>
       </c>
       <c r="G80" t="s">
-        <v>95</v>
+        <v>262</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
@@ -4420,19 +4420,19 @@
         <v>79</v>
       </c>
       <c r="B81" t="s">
+        <v>146</v>
+      </c>
+      <c r="C81" t="s">
+        <v>615</v>
+      </c>
+      <c r="D81" t="s">
+        <v>615</v>
+      </c>
+      <c r="F81" t="s">
         <v>147</v>
       </c>
-      <c r="C81" t="s">
-        <v>616</v>
-      </c>
-      <c r="D81" t="s">
-        <v>616</v>
-      </c>
-      <c r="F81" t="s">
-        <v>148</v>
-      </c>
       <c r="G81" t="s">
-        <v>95</v>
+        <v>262</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
@@ -4440,19 +4440,19 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
+        <v>148</v>
+      </c>
+      <c r="C82" t="s">
+        <v>615</v>
+      </c>
+      <c r="D82" t="s">
+        <v>615</v>
+      </c>
+      <c r="F82" t="s">
         <v>149</v>
       </c>
-      <c r="C82" t="s">
-        <v>616</v>
-      </c>
-      <c r="D82" t="s">
-        <v>616</v>
-      </c>
-      <c r="F82" t="s">
-        <v>150</v>
-      </c>
       <c r="G82" t="s">
-        <v>95</v>
+        <v>428</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
@@ -4460,19 +4460,19 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C83" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D83" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F83">
         <v>35</v>
       </c>
       <c r="G83" t="s">
-        <v>95</v>
+        <v>428</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
@@ -4480,19 +4480,19 @@
         <v>82</v>
       </c>
       <c r="B84" t="s">
+        <v>151</v>
+      </c>
+      <c r="C84" t="s">
+        <v>615</v>
+      </c>
+      <c r="D84" t="s">
+        <v>615</v>
+      </c>
+      <c r="F84" t="s">
         <v>152</v>
       </c>
-      <c r="C84" t="s">
-        <v>616</v>
-      </c>
-      <c r="D84" t="s">
-        <v>616</v>
-      </c>
-      <c r="F84" t="s">
-        <v>153</v>
-      </c>
       <c r="G84" t="s">
-        <v>95</v>
+        <v>428</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
@@ -4500,19 +4500,19 @@
         <v>83</v>
       </c>
       <c r="B85" t="s">
+        <v>153</v>
+      </c>
+      <c r="C85" t="s">
+        <v>615</v>
+      </c>
+      <c r="D85" t="s">
+        <v>615</v>
+      </c>
+      <c r="F85" t="s">
         <v>154</v>
       </c>
-      <c r="C85" t="s">
-        <v>616</v>
-      </c>
-      <c r="D85" t="s">
-        <v>616</v>
-      </c>
-      <c r="F85" t="s">
-        <v>155</v>
-      </c>
       <c r="G85" t="s">
-        <v>95</v>
+        <v>428</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
@@ -4520,19 +4520,19 @@
         <v>84</v>
       </c>
       <c r="B86" t="s">
+        <v>155</v>
+      </c>
+      <c r="C86" t="s">
+        <v>615</v>
+      </c>
+      <c r="D86" t="s">
+        <v>615</v>
+      </c>
+      <c r="F86" t="s">
         <v>156</v>
       </c>
-      <c r="C86" t="s">
-        <v>616</v>
-      </c>
-      <c r="D86" t="s">
-        <v>616</v>
-      </c>
-      <c r="F86" t="s">
-        <v>157</v>
-      </c>
       <c r="G86" t="s">
-        <v>95</v>
+        <v>428</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
@@ -4540,19 +4540,19 @@
         <v>85</v>
       </c>
       <c r="B87" t="s">
+        <v>157</v>
+      </c>
+      <c r="C87" t="s">
+        <v>615</v>
+      </c>
+      <c r="D87" t="s">
+        <v>615</v>
+      </c>
+      <c r="F87" t="s">
         <v>158</v>
       </c>
-      <c r="C87" t="s">
-        <v>616</v>
-      </c>
-      <c r="D87" t="s">
-        <v>616</v>
-      </c>
-      <c r="F87" t="s">
-        <v>159</v>
-      </c>
       <c r="G87" t="s">
-        <v>95</v>
+        <v>428</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
@@ -4560,19 +4560,19 @@
         <v>86</v>
       </c>
       <c r="B88" t="s">
+        <v>159</v>
+      </c>
+      <c r="C88" t="s">
+        <v>615</v>
+      </c>
+      <c r="D88" t="s">
+        <v>615</v>
+      </c>
+      <c r="F88" t="s">
         <v>160</v>
       </c>
-      <c r="C88" t="s">
-        <v>616</v>
-      </c>
-      <c r="D88" t="s">
-        <v>616</v>
-      </c>
-      <c r="F88" t="s">
-        <v>161</v>
-      </c>
       <c r="G88" t="s">
-        <v>95</v>
+        <v>428</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
@@ -4580,19 +4580,19 @@
         <v>87</v>
       </c>
       <c r="B89" t="s">
+        <v>161</v>
+      </c>
+      <c r="C89" t="s">
+        <v>615</v>
+      </c>
+      <c r="D89" t="s">
+        <v>615</v>
+      </c>
+      <c r="F89" t="s">
         <v>162</v>
       </c>
-      <c r="C89" t="s">
-        <v>616</v>
-      </c>
-      <c r="D89" t="s">
-        <v>616</v>
-      </c>
-      <c r="F89" t="s">
-        <v>163</v>
-      </c>
       <c r="G89" t="s">
-        <v>95</v>
+        <v>428</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
@@ -4600,19 +4600,19 @@
         <v>88</v>
       </c>
       <c r="B90" t="s">
+        <v>163</v>
+      </c>
+      <c r="C90" t="s">
+        <v>615</v>
+      </c>
+      <c r="D90" t="s">
+        <v>615</v>
+      </c>
+      <c r="F90" t="s">
         <v>164</v>
       </c>
-      <c r="C90" t="s">
-        <v>616</v>
-      </c>
-      <c r="D90" t="s">
-        <v>616</v>
-      </c>
-      <c r="F90" t="s">
-        <v>165</v>
-      </c>
       <c r="G90" t="s">
-        <v>95</v>
+        <v>428</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
@@ -4620,19 +4620,19 @@
         <v>89</v>
       </c>
       <c r="B91" t="s">
+        <v>165</v>
+      </c>
+      <c r="C91" t="s">
+        <v>615</v>
+      </c>
+      <c r="D91" t="s">
+        <v>615</v>
+      </c>
+      <c r="F91" t="s">
         <v>166</v>
       </c>
-      <c r="C91" t="s">
-        <v>616</v>
-      </c>
-      <c r="D91" t="s">
-        <v>616</v>
-      </c>
-      <c r="F91" t="s">
-        <v>167</v>
-      </c>
       <c r="G91" t="s">
-        <v>95</v>
+        <v>428</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
@@ -4640,19 +4640,19 @@
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C92" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D92" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F92">
         <v>16</v>
       </c>
       <c r="G92" t="s">
-        <v>95</v>
+        <v>428</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
@@ -4660,19 +4660,19 @@
         <v>91</v>
       </c>
       <c r="B93" t="s">
+        <v>168</v>
+      </c>
+      <c r="C93" t="s">
+        <v>615</v>
+      </c>
+      <c r="D93" t="s">
+        <v>615</v>
+      </c>
+      <c r="F93" t="s">
         <v>169</v>
       </c>
-      <c r="C93" t="s">
-        <v>616</v>
-      </c>
-      <c r="D93" t="s">
-        <v>616</v>
-      </c>
-      <c r="F93" t="s">
-        <v>170</v>
-      </c>
       <c r="G93" t="s">
-        <v>95</v>
+        <v>428</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
@@ -4680,19 +4680,19 @@
         <v>92</v>
       </c>
       <c r="B94" t="s">
+        <v>170</v>
+      </c>
+      <c r="C94" t="s">
+        <v>615</v>
+      </c>
+      <c r="D94" t="s">
+        <v>615</v>
+      </c>
+      <c r="F94" t="s">
         <v>171</v>
       </c>
-      <c r="C94" t="s">
-        <v>616</v>
-      </c>
-      <c r="D94" t="s">
-        <v>616</v>
-      </c>
-      <c r="F94" t="s">
-        <v>172</v>
-      </c>
       <c r="G94" t="s">
-        <v>95</v>
+        <v>428</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
@@ -4700,19 +4700,19 @@
         <v>93</v>
       </c>
       <c r="B95" t="s">
+        <v>172</v>
+      </c>
+      <c r="C95" t="s">
+        <v>615</v>
+      </c>
+      <c r="D95" t="s">
+        <v>615</v>
+      </c>
+      <c r="F95" t="s">
         <v>173</v>
       </c>
-      <c r="C95" t="s">
-        <v>616</v>
-      </c>
-      <c r="D95" t="s">
-        <v>616</v>
-      </c>
-      <c r="F95" t="s">
-        <v>174</v>
-      </c>
       <c r="G95" t="s">
-        <v>95</v>
+        <v>428</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
@@ -4720,22 +4720,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C96">
         <v>10006</v>
       </c>
       <c r="D96" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E96" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="F96">
         <v>16</v>
       </c>
       <c r="G96" t="s">
-        <v>95</v>
+        <v>3</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
@@ -4743,22 +4743,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C97">
         <v>10007</v>
       </c>
       <c r="D97" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E97" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="F97" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G97" t="s">
-        <v>95</v>
+        <v>3</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
@@ -4766,19 +4766,19 @@
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C98" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D98" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F98">
         <v>11</v>
       </c>
       <c r="G98" t="s">
-        <v>179</v>
+        <v>428</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
@@ -4786,19 +4786,19 @@
         <v>97</v>
       </c>
       <c r="B99" t="s">
+        <v>179</v>
+      </c>
+      <c r="C99" t="s">
+        <v>615</v>
+      </c>
+      <c r="D99" t="s">
+        <v>615</v>
+      </c>
+      <c r="F99" t="s">
         <v>180</v>
       </c>
-      <c r="C99" t="s">
-        <v>616</v>
-      </c>
-      <c r="D99" t="s">
-        <v>616</v>
-      </c>
-      <c r="F99" t="s">
-        <v>181</v>
-      </c>
       <c r="G99" t="s">
-        <v>179</v>
+        <v>428</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
@@ -4806,19 +4806,19 @@
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C100" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D100" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F100">
         <v>24</v>
       </c>
       <c r="G100" t="s">
-        <v>179</v>
+        <v>428</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
@@ -4826,19 +4826,19 @@
         <v>99</v>
       </c>
       <c r="B101" t="s">
+        <v>182</v>
+      </c>
+      <c r="C101" t="s">
+        <v>615</v>
+      </c>
+      <c r="D101" t="s">
+        <v>615</v>
+      </c>
+      <c r="F101" t="s">
         <v>183</v>
       </c>
-      <c r="C101" t="s">
-        <v>616</v>
-      </c>
-      <c r="D101" t="s">
-        <v>616</v>
-      </c>
-      <c r="F101" t="s">
-        <v>184</v>
-      </c>
       <c r="G101" t="s">
-        <v>179</v>
+        <v>428</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
@@ -4846,22 +4846,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C102">
         <v>10107</v>
       </c>
       <c r="D102" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E102" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F102" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G102" t="s">
-        <v>179</v>
+        <v>94</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
@@ -4869,19 +4869,19 @@
         <v>101</v>
       </c>
       <c r="B103" t="s">
+        <v>186</v>
+      </c>
+      <c r="C103" t="s">
+        <v>615</v>
+      </c>
+      <c r="D103" t="s">
+        <v>615</v>
+      </c>
+      <c r="F103" t="s">
         <v>187</v>
       </c>
-      <c r="C103" t="s">
-        <v>616</v>
-      </c>
-      <c r="D103" t="s">
-        <v>616</v>
-      </c>
-      <c r="F103" t="s">
-        <v>188</v>
-      </c>
       <c r="G103" t="s">
-        <v>179</v>
+        <v>428</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
@@ -4889,19 +4889,19 @@
         <v>102</v>
       </c>
       <c r="B104" t="s">
+        <v>188</v>
+      </c>
+      <c r="C104" t="s">
+        <v>615</v>
+      </c>
+      <c r="D104" t="s">
+        <v>615</v>
+      </c>
+      <c r="F104" t="s">
         <v>189</v>
       </c>
-      <c r="C104" t="s">
-        <v>616</v>
-      </c>
-      <c r="D104" t="s">
-        <v>616</v>
-      </c>
-      <c r="F104" t="s">
-        <v>190</v>
-      </c>
       <c r="G104" t="s">
-        <v>179</v>
+        <v>428</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
@@ -4909,19 +4909,19 @@
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C105" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D105" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F105">
         <v>33</v>
       </c>
       <c r="G105" t="s">
-        <v>179</v>
+        <v>428</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
@@ -4929,19 +4929,19 @@
         <v>104</v>
       </c>
       <c r="B106" t="s">
+        <v>191</v>
+      </c>
+      <c r="C106" t="s">
+        <v>615</v>
+      </c>
+      <c r="D106" t="s">
+        <v>615</v>
+      </c>
+      <c r="F106" t="s">
         <v>192</v>
       </c>
-      <c r="C106" t="s">
-        <v>616</v>
-      </c>
-      <c r="D106" t="s">
-        <v>616</v>
-      </c>
-      <c r="F106" t="s">
-        <v>193</v>
-      </c>
       <c r="G106" t="s">
-        <v>179</v>
+        <v>428</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
@@ -4949,19 +4949,19 @@
         <v>105</v>
       </c>
       <c r="B107" t="s">
+        <v>193</v>
+      </c>
+      <c r="C107" t="s">
+        <v>615</v>
+      </c>
+      <c r="D107" t="s">
+        <v>615</v>
+      </c>
+      <c r="F107" t="s">
         <v>194</v>
       </c>
-      <c r="C107" t="s">
-        <v>616</v>
-      </c>
-      <c r="D107" t="s">
-        <v>616</v>
-      </c>
-      <c r="F107" t="s">
-        <v>195</v>
-      </c>
       <c r="G107" t="s">
-        <v>179</v>
+        <v>428</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
@@ -4969,19 +4969,19 @@
         <v>106</v>
       </c>
       <c r="B108" t="s">
+        <v>195</v>
+      </c>
+      <c r="C108" t="s">
+        <v>615</v>
+      </c>
+      <c r="D108" t="s">
+        <v>615</v>
+      </c>
+      <c r="F108" t="s">
         <v>196</v>
       </c>
-      <c r="C108" t="s">
-        <v>616</v>
-      </c>
-      <c r="D108" t="s">
-        <v>616</v>
-      </c>
-      <c r="F108" t="s">
-        <v>197</v>
-      </c>
       <c r="G108" t="s">
-        <v>179</v>
+        <v>428</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
@@ -4989,19 +4989,19 @@
         <v>107</v>
       </c>
       <c r="B109" t="s">
+        <v>197</v>
+      </c>
+      <c r="C109" t="s">
+        <v>615</v>
+      </c>
+      <c r="D109" t="s">
+        <v>615</v>
+      </c>
+      <c r="F109" t="s">
         <v>198</v>
       </c>
-      <c r="C109" t="s">
-        <v>616</v>
-      </c>
-      <c r="D109" t="s">
-        <v>616</v>
-      </c>
-      <c r="F109" t="s">
-        <v>199</v>
-      </c>
       <c r="G109" t="s">
-        <v>179</v>
+        <v>428</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
@@ -5009,22 +5009,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C110">
         <v>10032</v>
       </c>
       <c r="D110" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E110" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="F110" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G110" t="s">
-        <v>179</v>
+        <v>3</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
@@ -5032,19 +5032,19 @@
         <v>109</v>
       </c>
       <c r="B111" t="s">
+        <v>201</v>
+      </c>
+      <c r="C111" t="s">
+        <v>615</v>
+      </c>
+      <c r="D111" t="s">
+        <v>615</v>
+      </c>
+      <c r="F111" t="s">
         <v>202</v>
       </c>
-      <c r="C111" t="s">
-        <v>616</v>
-      </c>
-      <c r="D111" t="s">
-        <v>616</v>
-      </c>
-      <c r="F111" t="s">
-        <v>203</v>
-      </c>
       <c r="G111" t="s">
-        <v>179</v>
+        <v>428</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
@@ -5052,19 +5052,19 @@
         <v>110</v>
       </c>
       <c r="B112" t="s">
+        <v>203</v>
+      </c>
+      <c r="C112" t="s">
+        <v>615</v>
+      </c>
+      <c r="D112" t="s">
+        <v>615</v>
+      </c>
+      <c r="F112" t="s">
         <v>204</v>
       </c>
-      <c r="C112" t="s">
-        <v>616</v>
-      </c>
-      <c r="D112" t="s">
-        <v>616</v>
-      </c>
-      <c r="F112" t="s">
-        <v>205</v>
-      </c>
       <c r="G112" t="s">
-        <v>179</v>
+        <v>428</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
@@ -5072,19 +5072,19 @@
         <v>111</v>
       </c>
       <c r="B113" t="s">
+        <v>205</v>
+      </c>
+      <c r="C113" t="s">
+        <v>615</v>
+      </c>
+      <c r="D113" t="s">
+        <v>615</v>
+      </c>
+      <c r="F113" t="s">
         <v>206</v>
       </c>
-      <c r="C113" t="s">
-        <v>616</v>
-      </c>
-      <c r="D113" t="s">
-        <v>616</v>
-      </c>
-      <c r="F113" t="s">
-        <v>207</v>
-      </c>
       <c r="G113" t="s">
-        <v>179</v>
+        <v>428</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
@@ -5092,19 +5092,19 @@
         <v>112</v>
       </c>
       <c r="B114" t="s">
+        <v>207</v>
+      </c>
+      <c r="C114" t="s">
+        <v>615</v>
+      </c>
+      <c r="D114" t="s">
+        <v>615</v>
+      </c>
+      <c r="F114" t="s">
         <v>208</v>
       </c>
-      <c r="C114" t="s">
-        <v>616</v>
-      </c>
-      <c r="D114" t="s">
-        <v>616</v>
-      </c>
-      <c r="F114" t="s">
-        <v>209</v>
-      </c>
       <c r="G114" t="s">
-        <v>179</v>
+        <v>428</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.2">
@@ -5112,19 +5112,19 @@
         <v>113</v>
       </c>
       <c r="B115" t="s">
+        <v>209</v>
+      </c>
+      <c r="C115" t="s">
+        <v>615</v>
+      </c>
+      <c r="D115" t="s">
+        <v>615</v>
+      </c>
+      <c r="F115" t="s">
         <v>210</v>
       </c>
-      <c r="C115" t="s">
-        <v>616</v>
-      </c>
-      <c r="D115" t="s">
-        <v>616</v>
-      </c>
-      <c r="F115" t="s">
-        <v>211</v>
-      </c>
       <c r="G115" t="s">
-        <v>179</v>
+        <v>428</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
@@ -5132,19 +5132,19 @@
         <v>114</v>
       </c>
       <c r="B116" t="s">
+        <v>211</v>
+      </c>
+      <c r="C116" t="s">
+        <v>615</v>
+      </c>
+      <c r="D116" t="s">
+        <v>615</v>
+      </c>
+      <c r="F116" t="s">
         <v>212</v>
       </c>
-      <c r="C116" t="s">
-        <v>616</v>
-      </c>
-      <c r="D116" t="s">
-        <v>616</v>
-      </c>
-      <c r="F116" t="s">
-        <v>213</v>
-      </c>
       <c r="G116" t="s">
-        <v>179</v>
+        <v>428</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
@@ -5152,19 +5152,19 @@
         <v>115</v>
       </c>
       <c r="B117" t="s">
+        <v>213</v>
+      </c>
+      <c r="C117" t="s">
+        <v>615</v>
+      </c>
+      <c r="D117" t="s">
+        <v>615</v>
+      </c>
+      <c r="F117" t="s">
         <v>214</v>
       </c>
-      <c r="C117" t="s">
-        <v>616</v>
-      </c>
-      <c r="D117" t="s">
-        <v>616</v>
-      </c>
-      <c r="F117" t="s">
-        <v>215</v>
-      </c>
       <c r="G117" t="s">
-        <v>179</v>
+        <v>428</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
@@ -5172,19 +5172,19 @@
         <v>116</v>
       </c>
       <c r="B118" t="s">
+        <v>215</v>
+      </c>
+      <c r="C118" t="s">
+        <v>615</v>
+      </c>
+      <c r="D118" t="s">
+        <v>615</v>
+      </c>
+      <c r="F118" t="s">
         <v>216</v>
       </c>
-      <c r="C118" t="s">
-        <v>616</v>
-      </c>
-      <c r="D118" t="s">
-        <v>616</v>
-      </c>
-      <c r="F118" t="s">
-        <v>217</v>
-      </c>
       <c r="G118" t="s">
-        <v>179</v>
+        <v>428</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
@@ -5192,19 +5192,19 @@
         <v>117</v>
       </c>
       <c r="B119" t="s">
+        <v>217</v>
+      </c>
+      <c r="C119" t="s">
+        <v>615</v>
+      </c>
+      <c r="D119" t="s">
+        <v>615</v>
+      </c>
+      <c r="F119" t="s">
         <v>218</v>
       </c>
-      <c r="C119" t="s">
-        <v>616</v>
-      </c>
-      <c r="D119" t="s">
-        <v>616</v>
-      </c>
-      <c r="F119" t="s">
-        <v>219</v>
-      </c>
       <c r="G119" t="s">
-        <v>179</v>
+        <v>428</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.2">
@@ -5212,22 +5212,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C120">
         <v>10073</v>
       </c>
       <c r="D120" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E120" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="F120">
         <v>24</v>
       </c>
       <c r="G120" t="s">
-        <v>179</v>
+        <v>94</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
@@ -5235,19 +5235,19 @@
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C121" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D121" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F121">
         <v>20</v>
       </c>
       <c r="G121" t="s">
-        <v>179</v>
+        <v>428</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.2">
@@ -5255,19 +5255,19 @@
         <v>120</v>
       </c>
       <c r="B122" t="s">
+        <v>221</v>
+      </c>
+      <c r="C122" t="s">
+        <v>615</v>
+      </c>
+      <c r="D122" t="s">
+        <v>615</v>
+      </c>
+      <c r="F122" t="s">
         <v>222</v>
       </c>
-      <c r="C122" t="s">
-        <v>616</v>
-      </c>
-      <c r="D122" t="s">
-        <v>616</v>
-      </c>
-      <c r="F122" t="s">
-        <v>223</v>
-      </c>
       <c r="G122" t="s">
-        <v>179</v>
+        <v>428</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.2">
@@ -5275,19 +5275,19 @@
         <v>121</v>
       </c>
       <c r="B123" t="s">
+        <v>223</v>
+      </c>
+      <c r="C123" t="s">
+        <v>615</v>
+      </c>
+      <c r="D123" t="s">
+        <v>615</v>
+      </c>
+      <c r="F123" t="s">
         <v>224</v>
       </c>
-      <c r="C123" t="s">
-        <v>616</v>
-      </c>
-      <c r="D123" t="s">
-        <v>616</v>
-      </c>
-      <c r="F123" t="s">
-        <v>225</v>
-      </c>
       <c r="G123" t="s">
-        <v>179</v>
+        <v>428</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.2">
@@ -5295,19 +5295,19 @@
         <v>122</v>
       </c>
       <c r="B124" t="s">
+        <v>225</v>
+      </c>
+      <c r="C124" t="s">
+        <v>615</v>
+      </c>
+      <c r="D124" t="s">
+        <v>615</v>
+      </c>
+      <c r="F124" t="s">
         <v>226</v>
       </c>
-      <c r="C124" t="s">
-        <v>616</v>
-      </c>
-      <c r="D124" t="s">
-        <v>616</v>
-      </c>
-      <c r="F124" t="s">
-        <v>227</v>
-      </c>
       <c r="G124" t="s">
-        <v>179</v>
+        <v>428</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.2">
@@ -5315,19 +5315,19 @@
         <v>123</v>
       </c>
       <c r="B125" t="s">
+        <v>227</v>
+      </c>
+      <c r="C125" t="s">
+        <v>615</v>
+      </c>
+      <c r="D125" t="s">
+        <v>615</v>
+      </c>
+      <c r="F125" t="s">
         <v>228</v>
       </c>
-      <c r="C125" t="s">
-        <v>616</v>
-      </c>
-      <c r="D125" t="s">
-        <v>616</v>
-      </c>
-      <c r="F125" t="s">
-        <v>229</v>
-      </c>
       <c r="G125" t="s">
-        <v>179</v>
+        <v>428</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.2">
@@ -5335,19 +5335,19 @@
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C126" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D126" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F126">
         <v>30</v>
       </c>
       <c r="G126" t="s">
-        <v>179</v>
+        <v>428</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.2">
@@ -5355,19 +5355,19 @@
         <v>125</v>
       </c>
       <c r="B127" t="s">
+        <v>230</v>
+      </c>
+      <c r="C127" t="s">
+        <v>615</v>
+      </c>
+      <c r="D127" t="s">
+        <v>615</v>
+      </c>
+      <c r="F127" t="s">
         <v>231</v>
       </c>
-      <c r="C127" t="s">
-        <v>616</v>
-      </c>
-      <c r="D127" t="s">
-        <v>616</v>
-      </c>
-      <c r="F127" t="s">
-        <v>232</v>
-      </c>
       <c r="G127" t="s">
-        <v>179</v>
+        <v>428</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.2">
@@ -5375,22 +5375,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C128">
         <v>10027</v>
       </c>
       <c r="D128" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E128" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="F128">
         <v>7</v>
       </c>
       <c r="G128" t="s">
-        <v>179</v>
+        <v>3</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.2">
@@ -5398,22 +5398,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C129">
         <v>10032</v>
       </c>
       <c r="D129" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E129" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="F129" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G129" t="s">
-        <v>179</v>
+        <v>3</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.2">
@@ -5421,19 +5421,19 @@
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C130" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D130" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F130">
         <v>32</v>
       </c>
       <c r="G130" t="s">
-        <v>179</v>
+        <v>428</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.2">
@@ -5441,19 +5441,19 @@
         <v>129</v>
       </c>
       <c r="B131" t="s">
+        <v>236</v>
+      </c>
+      <c r="C131" t="s">
+        <v>615</v>
+      </c>
+      <c r="D131" t="s">
+        <v>615</v>
+      </c>
+      <c r="F131" t="s">
         <v>237</v>
       </c>
-      <c r="C131" t="s">
-        <v>616</v>
-      </c>
-      <c r="D131" t="s">
-        <v>616</v>
-      </c>
-      <c r="F131" t="s">
-        <v>238</v>
-      </c>
       <c r="G131" t="s">
-        <v>179</v>
+        <v>428</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.2">
@@ -5461,19 +5461,19 @@
         <v>130</v>
       </c>
       <c r="B132" t="s">
+        <v>238</v>
+      </c>
+      <c r="C132" t="s">
+        <v>615</v>
+      </c>
+      <c r="D132" t="s">
+        <v>615</v>
+      </c>
+      <c r="F132" t="s">
         <v>239</v>
       </c>
-      <c r="C132" t="s">
-        <v>616</v>
-      </c>
-      <c r="D132" t="s">
-        <v>616</v>
-      </c>
-      <c r="F132" t="s">
-        <v>240</v>
-      </c>
       <c r="G132" t="s">
-        <v>179</v>
+        <v>428</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.2">
@@ -5481,19 +5481,19 @@
         <v>131</v>
       </c>
       <c r="B133" t="s">
+        <v>238</v>
+      </c>
+      <c r="C133" t="s">
+        <v>615</v>
+      </c>
+      <c r="D133" t="s">
+        <v>615</v>
+      </c>
+      <c r="F133" t="s">
         <v>239</v>
       </c>
-      <c r="C133" t="s">
-        <v>616</v>
-      </c>
-      <c r="D133" t="s">
-        <v>616</v>
-      </c>
-      <c r="F133" t="s">
-        <v>240</v>
-      </c>
       <c r="G133" t="s">
-        <v>179</v>
+        <v>428</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.2">
@@ -5501,19 +5501,19 @@
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C134" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D134" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F134">
         <v>2</v>
       </c>
       <c r="G134" t="s">
-        <v>179</v>
+        <v>428</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.2">
@@ -5521,19 +5521,19 @@
         <v>133</v>
       </c>
       <c r="B135" t="s">
+        <v>241</v>
+      </c>
+      <c r="C135" t="s">
+        <v>615</v>
+      </c>
+      <c r="D135" t="s">
+        <v>615</v>
+      </c>
+      <c r="F135" t="s">
         <v>242</v>
       </c>
-      <c r="C135" t="s">
-        <v>616</v>
-      </c>
-      <c r="D135" t="s">
-        <v>616</v>
-      </c>
-      <c r="F135" t="s">
-        <v>243</v>
-      </c>
       <c r="G135" t="s">
-        <v>179</v>
+        <v>428</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.2">
@@ -5541,19 +5541,19 @@
         <v>134</v>
       </c>
       <c r="B136" t="s">
+        <v>243</v>
+      </c>
+      <c r="C136" t="s">
+        <v>615</v>
+      </c>
+      <c r="D136" t="s">
+        <v>615</v>
+      </c>
+      <c r="F136" t="s">
         <v>244</v>
       </c>
-      <c r="C136" t="s">
-        <v>616</v>
-      </c>
-      <c r="D136" t="s">
-        <v>616</v>
-      </c>
-      <c r="F136" t="s">
-        <v>245</v>
-      </c>
       <c r="G136" t="s">
-        <v>179</v>
+        <v>428</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.2">
@@ -5561,19 +5561,19 @@
         <v>135</v>
       </c>
       <c r="B137" t="s">
+        <v>245</v>
+      </c>
+      <c r="C137" t="s">
+        <v>615</v>
+      </c>
+      <c r="D137" t="s">
+        <v>615</v>
+      </c>
+      <c r="F137" t="s">
         <v>246</v>
       </c>
-      <c r="C137" t="s">
-        <v>616</v>
-      </c>
-      <c r="D137" t="s">
-        <v>616</v>
-      </c>
-      <c r="F137" t="s">
-        <v>247</v>
-      </c>
       <c r="G137" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.2">
@@ -5581,22 +5581,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C138">
         <v>10109</v>
       </c>
       <c r="D138" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E138" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F138" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G138" t="s">
-        <v>179</v>
+        <v>94</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.2">
@@ -5604,19 +5604,19 @@
         <v>137</v>
       </c>
       <c r="B139" t="s">
+        <v>248</v>
+      </c>
+      <c r="C139" t="s">
+        <v>615</v>
+      </c>
+      <c r="D139" t="s">
+        <v>615</v>
+      </c>
+      <c r="F139" t="s">
         <v>249</v>
       </c>
-      <c r="C139" t="s">
-        <v>616</v>
-      </c>
-      <c r="D139" t="s">
-        <v>616</v>
-      </c>
-      <c r="F139" t="s">
-        <v>250</v>
-      </c>
       <c r="G139" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.2">
@@ -5624,19 +5624,19 @@
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C140" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D140" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F140">
         <v>30</v>
       </c>
       <c r="G140" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.2">
@@ -5644,19 +5644,19 @@
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C141" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D141" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F141">
         <v>25</v>
       </c>
       <c r="G141" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.2">
@@ -5664,22 +5664,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C142">
         <v>10006</v>
       </c>
       <c r="D142" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E142" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="F142" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G142" t="s">
-        <v>179</v>
+        <v>3</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.2">
@@ -5687,19 +5687,19 @@
         <v>141</v>
       </c>
       <c r="B143" t="s">
+        <v>254</v>
+      </c>
+      <c r="C143" t="s">
+        <v>615</v>
+      </c>
+      <c r="D143" t="s">
+        <v>615</v>
+      </c>
+      <c r="F143" t="s">
         <v>255</v>
       </c>
-      <c r="C143" t="s">
-        <v>616</v>
-      </c>
-      <c r="D143" t="s">
-        <v>616</v>
-      </c>
-      <c r="F143" t="s">
-        <v>256</v>
-      </c>
       <c r="G143" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.2">
@@ -5707,19 +5707,19 @@
         <v>142</v>
       </c>
       <c r="B144" t="s">
+        <v>256</v>
+      </c>
+      <c r="C144" t="s">
+        <v>615</v>
+      </c>
+      <c r="D144" t="s">
+        <v>615</v>
+      </c>
+      <c r="F144" t="s">
         <v>257</v>
       </c>
-      <c r="C144" t="s">
-        <v>616</v>
-      </c>
-      <c r="D144" t="s">
-        <v>616</v>
-      </c>
-      <c r="F144" t="s">
-        <v>258</v>
-      </c>
       <c r="G144" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.2">
@@ -5727,22 +5727,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C145">
         <v>10065</v>
       </c>
       <c r="D145" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E145" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="F145" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G145" t="s">
-        <v>179</v>
+        <v>94</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.2">
@@ -5750,19 +5750,19 @@
         <v>144</v>
       </c>
       <c r="B146" t="s">
+        <v>260</v>
+      </c>
+      <c r="C146" t="s">
+        <v>615</v>
+      </c>
+      <c r="D146" t="s">
+        <v>615</v>
+      </c>
+      <c r="F146" t="s">
         <v>261</v>
       </c>
-      <c r="C146" t="s">
-        <v>616</v>
-      </c>
-      <c r="D146" t="s">
-        <v>616</v>
-      </c>
-      <c r="F146" t="s">
-        <v>262</v>
-      </c>
       <c r="G146" t="s">
-        <v>263</v>
+        <v>178</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.2">
@@ -5770,19 +5770,19 @@
         <v>145</v>
       </c>
       <c r="B147" t="s">
+        <v>263</v>
+      </c>
+      <c r="C147" t="s">
+        <v>615</v>
+      </c>
+      <c r="D147" t="s">
+        <v>615</v>
+      </c>
+      <c r="F147" t="s">
         <v>264</v>
       </c>
-      <c r="C147" t="s">
-        <v>616</v>
-      </c>
-      <c r="D147" t="s">
-        <v>616</v>
-      </c>
-      <c r="F147" t="s">
-        <v>265</v>
-      </c>
       <c r="G147" t="s">
-        <v>263</v>
+        <v>178</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.2">
@@ -5790,22 +5790,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C148">
         <v>10131</v>
       </c>
       <c r="D148" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E148" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F148" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G148" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.2">
@@ -5813,19 +5813,19 @@
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C149" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D149" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F149">
         <v>28</v>
       </c>
       <c r="G149" t="s">
-        <v>263</v>
+        <v>178</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.2">
@@ -5833,19 +5833,19 @@
         <v>148</v>
       </c>
       <c r="B150" t="s">
+        <v>268</v>
+      </c>
+      <c r="C150" t="s">
+        <v>615</v>
+      </c>
+      <c r="D150" t="s">
+        <v>615</v>
+      </c>
+      <c r="F150" t="s">
         <v>269</v>
       </c>
-      <c r="C150" t="s">
-        <v>616</v>
-      </c>
-      <c r="D150" t="s">
-        <v>616</v>
-      </c>
-      <c r="F150" t="s">
-        <v>270</v>
-      </c>
       <c r="G150" t="s">
-        <v>263</v>
+        <v>178</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.2">
@@ -5853,19 +5853,19 @@
         <v>149</v>
       </c>
       <c r="B151" t="s">
+        <v>270</v>
+      </c>
+      <c r="C151" t="s">
+        <v>615</v>
+      </c>
+      <c r="D151" t="s">
+        <v>615</v>
+      </c>
+      <c r="F151" t="s">
         <v>271</v>
       </c>
-      <c r="C151" t="s">
-        <v>616</v>
-      </c>
-      <c r="D151" t="s">
-        <v>616</v>
-      </c>
-      <c r="F151" t="s">
-        <v>272</v>
-      </c>
       <c r="G151" t="s">
-        <v>263</v>
+        <v>178</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.2">
@@ -5873,19 +5873,19 @@
         <v>150</v>
       </c>
       <c r="B152" t="s">
+        <v>272</v>
+      </c>
+      <c r="C152" t="s">
+        <v>615</v>
+      </c>
+      <c r="D152" t="s">
+        <v>615</v>
+      </c>
+      <c r="F152" t="s">
         <v>273</v>
       </c>
-      <c r="C152" t="s">
-        <v>616</v>
-      </c>
-      <c r="D152" t="s">
-        <v>616</v>
-      </c>
-      <c r="F152" t="s">
-        <v>274</v>
-      </c>
       <c r="G152" t="s">
-        <v>263</v>
+        <v>178</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.2">
@@ -5893,19 +5893,19 @@
         <v>151</v>
       </c>
       <c r="B153" t="s">
+        <v>274</v>
+      </c>
+      <c r="C153" t="s">
+        <v>615</v>
+      </c>
+      <c r="D153" t="s">
+        <v>615</v>
+      </c>
+      <c r="F153" t="s">
         <v>275</v>
       </c>
-      <c r="C153" t="s">
-        <v>616</v>
-      </c>
-      <c r="D153" t="s">
-        <v>616</v>
-      </c>
-      <c r="F153" t="s">
-        <v>276</v>
-      </c>
       <c r="G153" t="s">
-        <v>263</v>
+        <v>178</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.2">
@@ -5913,19 +5913,19 @@
         <v>152</v>
       </c>
       <c r="B154" t="s">
+        <v>276</v>
+      </c>
+      <c r="C154" t="s">
+        <v>615</v>
+      </c>
+      <c r="D154" t="s">
+        <v>615</v>
+      </c>
+      <c r="F154" t="s">
         <v>277</v>
       </c>
-      <c r="C154" t="s">
-        <v>616</v>
-      </c>
-      <c r="D154" t="s">
-        <v>616</v>
-      </c>
-      <c r="F154" t="s">
-        <v>278</v>
-      </c>
       <c r="G154" t="s">
-        <v>263</v>
+        <v>178</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.2">
@@ -5933,19 +5933,19 @@
         <v>153</v>
       </c>
       <c r="B155" t="s">
+        <v>278</v>
+      </c>
+      <c r="C155" t="s">
+        <v>615</v>
+      </c>
+      <c r="D155" t="s">
+        <v>615</v>
+      </c>
+      <c r="F155" t="s">
         <v>279</v>
       </c>
-      <c r="C155" t="s">
-        <v>616</v>
-      </c>
-      <c r="D155" t="s">
-        <v>616</v>
-      </c>
-      <c r="F155" t="s">
-        <v>280</v>
-      </c>
       <c r="G155" t="s">
-        <v>263</v>
+        <v>178</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.2">
@@ -5953,22 +5953,22 @@
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C156">
         <v>10009</v>
       </c>
       <c r="D156" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E156" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="F156" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G156" t="s">
-        <v>263</v>
+        <v>3</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.2">
@@ -5976,22 +5976,22 @@
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C157">
         <v>10110</v>
       </c>
       <c r="D157" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E157" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="F157" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G157" t="s">
-        <v>263</v>
+        <v>94</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.2">
@@ -5999,19 +5999,19 @@
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C158" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D158" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F158">
         <v>18</v>
       </c>
       <c r="G158" t="s">
-        <v>263</v>
+        <v>178</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.2">
@@ -6019,19 +6019,19 @@
         <v>157</v>
       </c>
       <c r="B159" t="s">
+        <v>285</v>
+      </c>
+      <c r="C159" t="s">
+        <v>615</v>
+      </c>
+      <c r="D159" t="s">
+        <v>615</v>
+      </c>
+      <c r="F159" t="s">
         <v>286</v>
       </c>
-      <c r="C159" t="s">
-        <v>616</v>
-      </c>
-      <c r="D159" t="s">
-        <v>616</v>
-      </c>
-      <c r="F159" t="s">
-        <v>287</v>
-      </c>
       <c r="G159" t="s">
-        <v>263</v>
+        <v>178</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.2">
@@ -6039,22 +6039,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C160">
         <v>10056</v>
       </c>
       <c r="D160" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E160" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F160" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G160" t="s">
-        <v>263</v>
+        <v>94</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.2">
@@ -6062,19 +6062,19 @@
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C161" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D161" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F161">
         <v>9</v>
       </c>
       <c r="G161" t="s">
-        <v>263</v>
+        <v>178</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.2">
@@ -6082,19 +6082,19 @@
         <v>160</v>
       </c>
       <c r="B162" t="s">
+        <v>290</v>
+      </c>
+      <c r="C162" t="s">
+        <v>615</v>
+      </c>
+      <c r="D162" t="s">
+        <v>615</v>
+      </c>
+      <c r="F162" t="s">
         <v>291</v>
       </c>
-      <c r="C162" t="s">
-        <v>616</v>
-      </c>
-      <c r="D162" t="s">
-        <v>616</v>
-      </c>
-      <c r="F162" t="s">
-        <v>292</v>
-      </c>
       <c r="G162" t="s">
-        <v>263</v>
+        <v>178</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.2">
@@ -6102,19 +6102,19 @@
         <v>161</v>
       </c>
       <c r="B163" t="s">
+        <v>292</v>
+      </c>
+      <c r="C163" t="s">
+        <v>615</v>
+      </c>
+      <c r="D163" t="s">
+        <v>615</v>
+      </c>
+      <c r="F163" t="s">
         <v>293</v>
       </c>
-      <c r="C163" t="s">
-        <v>616</v>
-      </c>
-      <c r="D163" t="s">
-        <v>616</v>
-      </c>
-      <c r="F163" t="s">
-        <v>294</v>
-      </c>
       <c r="G163" t="s">
-        <v>263</v>
+        <v>178</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.2">
@@ -6122,19 +6122,19 @@
         <v>162</v>
       </c>
       <c r="B164" t="s">
+        <v>294</v>
+      </c>
+      <c r="C164" t="s">
+        <v>615</v>
+      </c>
+      <c r="D164" t="s">
+        <v>615</v>
+      </c>
+      <c r="F164" t="s">
         <v>295</v>
       </c>
-      <c r="C164" t="s">
-        <v>616</v>
-      </c>
-      <c r="D164" t="s">
-        <v>616</v>
-      </c>
-      <c r="F164" t="s">
-        <v>296</v>
-      </c>
       <c r="G164" t="s">
-        <v>263</v>
+        <v>178</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.2">
@@ -6142,19 +6142,19 @@
         <v>163</v>
       </c>
       <c r="B165" t="s">
+        <v>296</v>
+      </c>
+      <c r="C165" t="s">
+        <v>615</v>
+      </c>
+      <c r="D165" t="s">
+        <v>615</v>
+      </c>
+      <c r="F165" t="s">
         <v>297</v>
       </c>
-      <c r="C165" t="s">
-        <v>616</v>
-      </c>
-      <c r="D165" t="s">
-        <v>616</v>
-      </c>
-      <c r="F165" t="s">
-        <v>298</v>
-      </c>
       <c r="G165" t="s">
-        <v>263</v>
+        <v>178</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.2">
@@ -6162,19 +6162,19 @@
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C166" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D166" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F166">
         <v>32</v>
       </c>
       <c r="G166" t="s">
-        <v>263</v>
+        <v>178</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.2">
@@ -6182,22 +6182,22 @@
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C167">
         <v>10079</v>
       </c>
       <c r="D167" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E167" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="F167" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G167" t="s">
-        <v>263</v>
+        <v>94</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.2">
@@ -6205,19 +6205,19 @@
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C168" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D168" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F168">
         <v>24</v>
       </c>
       <c r="G168" t="s">
-        <v>263</v>
+        <v>178</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.2">
@@ -6225,19 +6225,19 @@
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C169" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D169" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F169">
         <v>17</v>
       </c>
       <c r="G169" t="s">
-        <v>263</v>
+        <v>178</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.2">
@@ -6245,19 +6245,19 @@
         <v>168</v>
       </c>
       <c r="B170" t="s">
+        <v>303</v>
+      </c>
+      <c r="C170" t="s">
+        <v>615</v>
+      </c>
+      <c r="D170" t="s">
+        <v>615</v>
+      </c>
+      <c r="F170" t="s">
         <v>304</v>
       </c>
-      <c r="C170" t="s">
-        <v>616</v>
-      </c>
-      <c r="D170" t="s">
-        <v>616</v>
-      </c>
-      <c r="F170" t="s">
-        <v>305</v>
-      </c>
       <c r="G170" t="s">
-        <v>263</v>
+        <v>178</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.2">
@@ -6265,19 +6265,19 @@
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C171" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D171" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F171">
         <v>32</v>
       </c>
       <c r="G171" t="s">
-        <v>263</v>
+        <v>178</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.2">
@@ -6285,19 +6285,19 @@
         <v>170</v>
       </c>
       <c r="B172" t="s">
+        <v>306</v>
+      </c>
+      <c r="C172" t="s">
+        <v>615</v>
+      </c>
+      <c r="D172" t="s">
+        <v>615</v>
+      </c>
+      <c r="F172" t="s">
         <v>307</v>
       </c>
-      <c r="C172" t="s">
-        <v>616</v>
-      </c>
-      <c r="D172" t="s">
-        <v>616</v>
-      </c>
-      <c r="F172" t="s">
-        <v>308</v>
-      </c>
       <c r="G172" t="s">
-        <v>263</v>
+        <v>178</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.2">
@@ -6305,19 +6305,19 @@
         <v>171</v>
       </c>
       <c r="B173" t="s">
+        <v>306</v>
+      </c>
+      <c r="C173" t="s">
+        <v>615</v>
+      </c>
+      <c r="D173" t="s">
+        <v>615</v>
+      </c>
+      <c r="F173" t="s">
         <v>307</v>
       </c>
-      <c r="C173" t="s">
-        <v>616</v>
-      </c>
-      <c r="D173" t="s">
-        <v>616</v>
-      </c>
-      <c r="F173" t="s">
-        <v>308</v>
-      </c>
       <c r="G173" t="s">
-        <v>263</v>
+        <v>178</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.2">
@@ -6325,19 +6325,19 @@
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C174" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D174" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F174">
         <v>19</v>
       </c>
       <c r="G174" t="s">
-        <v>263</v>
+        <v>178</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.2">
@@ -6345,19 +6345,19 @@
         <v>173</v>
       </c>
       <c r="B175" t="s">
+        <v>309</v>
+      </c>
+      <c r="C175" t="s">
+        <v>615</v>
+      </c>
+      <c r="D175" t="s">
+        <v>615</v>
+      </c>
+      <c r="F175" t="s">
         <v>310</v>
       </c>
-      <c r="C175" t="s">
-        <v>616</v>
-      </c>
-      <c r="D175" t="s">
-        <v>616</v>
-      </c>
-      <c r="F175" t="s">
-        <v>311</v>
-      </c>
       <c r="G175" t="s">
-        <v>263</v>
+        <v>178</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.2">
@@ -6365,19 +6365,19 @@
         <v>174</v>
       </c>
       <c r="B176" t="s">
+        <v>311</v>
+      </c>
+      <c r="C176" t="s">
+        <v>615</v>
+      </c>
+      <c r="D176" t="s">
+        <v>615</v>
+      </c>
+      <c r="F176" t="s">
         <v>312</v>
       </c>
-      <c r="C176" t="s">
-        <v>616</v>
-      </c>
-      <c r="D176" t="s">
-        <v>616</v>
-      </c>
-      <c r="F176" t="s">
-        <v>313</v>
-      </c>
       <c r="G176" t="s">
-        <v>263</v>
+        <v>178</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.2">
@@ -6385,19 +6385,19 @@
         <v>175</v>
       </c>
       <c r="B177" t="s">
+        <v>313</v>
+      </c>
+      <c r="C177" t="s">
+        <v>615</v>
+      </c>
+      <c r="D177" t="s">
+        <v>615</v>
+      </c>
+      <c r="F177" t="s">
         <v>314</v>
       </c>
-      <c r="C177" t="s">
-        <v>616</v>
-      </c>
-      <c r="D177" t="s">
-        <v>616</v>
-      </c>
-      <c r="F177" t="s">
-        <v>315</v>
-      </c>
       <c r="G177" t="s">
-        <v>263</v>
+        <v>178</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.2">
@@ -6405,22 +6405,22 @@
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C178">
         <v>10109</v>
       </c>
       <c r="D178" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E178" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="F178">
         <v>9</v>
       </c>
       <c r="G178" t="s">
-        <v>263</v>
+        <v>94</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.2">
@@ -6428,22 +6428,22 @@
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C179">
         <v>10032</v>
       </c>
       <c r="D179" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E179" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="F179" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G179" t="s">
-        <v>263</v>
+        <v>3</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.2">
@@ -6451,19 +6451,19 @@
         <v>178</v>
       </c>
       <c r="B180" t="s">
+        <v>318</v>
+      </c>
+      <c r="C180" t="s">
+        <v>615</v>
+      </c>
+      <c r="D180" t="s">
+        <v>615</v>
+      </c>
+      <c r="F180" t="s">
         <v>319</v>
       </c>
-      <c r="C180" t="s">
-        <v>616</v>
-      </c>
-      <c r="D180" t="s">
-        <v>616</v>
-      </c>
-      <c r="F180" t="s">
-        <v>320</v>
-      </c>
       <c r="G180" t="s">
-        <v>263</v>
+        <v>178</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.2">
@@ -6471,19 +6471,19 @@
         <v>179</v>
       </c>
       <c r="B181" t="s">
+        <v>320</v>
+      </c>
+      <c r="C181" t="s">
+        <v>615</v>
+      </c>
+      <c r="D181" t="s">
+        <v>615</v>
+      </c>
+      <c r="F181" t="s">
         <v>321</v>
       </c>
-      <c r="C181" t="s">
-        <v>616</v>
-      </c>
-      <c r="D181" t="s">
-        <v>616</v>
-      </c>
-      <c r="F181" t="s">
-        <v>322</v>
-      </c>
       <c r="G181" t="s">
-        <v>263</v>
+        <v>178</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.2">
@@ -6491,19 +6491,19 @@
         <v>180</v>
       </c>
       <c r="B182" t="s">
+        <v>322</v>
+      </c>
+      <c r="C182" t="s">
+        <v>615</v>
+      </c>
+      <c r="D182" t="s">
+        <v>615</v>
+      </c>
+      <c r="F182" t="s">
         <v>323</v>
       </c>
-      <c r="C182" t="s">
-        <v>616</v>
-      </c>
-      <c r="D182" t="s">
-        <v>616</v>
-      </c>
-      <c r="F182" t="s">
-        <v>324</v>
-      </c>
       <c r="G182" t="s">
-        <v>263</v>
+        <v>178</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.2">
@@ -6511,19 +6511,19 @@
         <v>181</v>
       </c>
       <c r="B183" t="s">
+        <v>324</v>
+      </c>
+      <c r="C183" t="s">
+        <v>615</v>
+      </c>
+      <c r="D183" t="s">
+        <v>615</v>
+      </c>
+      <c r="F183" t="s">
         <v>325</v>
       </c>
-      <c r="C183" t="s">
-        <v>616</v>
-      </c>
-      <c r="D183" t="s">
-        <v>616</v>
-      </c>
-      <c r="F183" t="s">
-        <v>326</v>
-      </c>
       <c r="G183" t="s">
-        <v>263</v>
+        <v>178</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.2">
@@ -6531,19 +6531,19 @@
         <v>182</v>
       </c>
       <c r="B184" t="s">
+        <v>326</v>
+      </c>
+      <c r="C184" t="s">
+        <v>615</v>
+      </c>
+      <c r="D184" t="s">
+        <v>615</v>
+      </c>
+      <c r="F184" t="s">
         <v>327</v>
       </c>
-      <c r="C184" t="s">
-        <v>616</v>
-      </c>
-      <c r="D184" t="s">
-        <v>616</v>
-      </c>
-      <c r="F184" t="s">
-        <v>328</v>
-      </c>
       <c r="G184" t="s">
-        <v>263</v>
+        <v>178</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.2">
@@ -6551,19 +6551,19 @@
         <v>183</v>
       </c>
       <c r="B185" t="s">
+        <v>328</v>
+      </c>
+      <c r="C185" t="s">
+        <v>615</v>
+      </c>
+      <c r="D185" t="s">
+        <v>615</v>
+      </c>
+      <c r="F185" t="s">
         <v>329</v>
       </c>
-      <c r="C185" t="s">
-        <v>616</v>
-      </c>
-      <c r="D185" t="s">
-        <v>616</v>
-      </c>
-      <c r="F185" t="s">
-        <v>330</v>
-      </c>
       <c r="G185" t="s">
-        <v>263</v>
+        <v>178</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.2">
@@ -6571,19 +6571,19 @@
         <v>184</v>
       </c>
       <c r="B186" t="s">
+        <v>330</v>
+      </c>
+      <c r="C186" t="s">
+        <v>615</v>
+      </c>
+      <c r="D186" t="s">
+        <v>615</v>
+      </c>
+      <c r="F186" t="s">
         <v>331</v>
       </c>
-      <c r="C186" t="s">
-        <v>616</v>
-      </c>
-      <c r="D186" t="s">
-        <v>616</v>
-      </c>
-      <c r="F186" t="s">
-        <v>332</v>
-      </c>
       <c r="G186" t="s">
-        <v>263</v>
+        <v>178</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.2">
@@ -6591,22 +6591,22 @@
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C187">
         <v>10006</v>
       </c>
       <c r="D187" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E187" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="F187">
         <v>10</v>
       </c>
       <c r="G187" t="s">
-        <v>263</v>
+        <v>3</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.2">
@@ -6614,22 +6614,22 @@
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C188">
         <v>10007</v>
       </c>
       <c r="D188" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E188" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="F188" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G188" t="s">
-        <v>263</v>
+        <v>3</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.2">
@@ -6637,19 +6637,19 @@
         <v>187</v>
       </c>
       <c r="B189" t="s">
+        <v>335</v>
+      </c>
+      <c r="C189" t="s">
+        <v>615</v>
+      </c>
+      <c r="D189" t="s">
+        <v>615</v>
+      </c>
+      <c r="F189" t="s">
         <v>336</v>
       </c>
-      <c r="C189" t="s">
-        <v>616</v>
-      </c>
-      <c r="D189" t="s">
-        <v>616</v>
-      </c>
-      <c r="F189" t="s">
-        <v>337</v>
-      </c>
       <c r="G189" t="s">
-        <v>263</v>
+        <v>178</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.2">
@@ -6657,19 +6657,19 @@
         <v>188</v>
       </c>
       <c r="B190" t="s">
+        <v>337</v>
+      </c>
+      <c r="C190" t="s">
+        <v>615</v>
+      </c>
+      <c r="D190" t="s">
+        <v>615</v>
+      </c>
+      <c r="F190" t="s">
         <v>338</v>
       </c>
-      <c r="C190" t="s">
-        <v>616</v>
-      </c>
-      <c r="D190" t="s">
-        <v>616</v>
-      </c>
-      <c r="F190" t="s">
-        <v>339</v>
-      </c>
       <c r="G190" t="s">
-        <v>263</v>
+        <v>178</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.2">
@@ -6677,19 +6677,19 @@
         <v>189</v>
       </c>
       <c r="B191" t="s">
+        <v>339</v>
+      </c>
+      <c r="C191" t="s">
+        <v>615</v>
+      </c>
+      <c r="D191" t="s">
+        <v>615</v>
+      </c>
+      <c r="F191" t="s">
         <v>340</v>
       </c>
-      <c r="C191" t="s">
-        <v>616</v>
-      </c>
-      <c r="D191" t="s">
-        <v>616</v>
-      </c>
-      <c r="F191" t="s">
-        <v>341</v>
-      </c>
       <c r="G191" t="s">
-        <v>263</v>
+        <v>178</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.2">
@@ -6697,19 +6697,19 @@
         <v>190</v>
       </c>
       <c r="B192" t="s">
+        <v>341</v>
+      </c>
+      <c r="C192" t="s">
+        <v>615</v>
+      </c>
+      <c r="D192" t="s">
+        <v>615</v>
+      </c>
+      <c r="F192" t="s">
         <v>342</v>
       </c>
-      <c r="C192" t="s">
-        <v>616</v>
-      </c>
-      <c r="D192" t="s">
-        <v>616</v>
-      </c>
-      <c r="F192" t="s">
-        <v>343</v>
-      </c>
       <c r="G192" t="s">
-        <v>263</v>
+        <v>178</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.2">
@@ -6717,19 +6717,19 @@
         <v>191</v>
       </c>
       <c r="B193" t="s">
+        <v>343</v>
+      </c>
+      <c r="C193" t="s">
+        <v>615</v>
+      </c>
+      <c r="D193" t="s">
+        <v>615</v>
+      </c>
+      <c r="F193" t="s">
         <v>344</v>
       </c>
-      <c r="C193" t="s">
-        <v>616</v>
-      </c>
-      <c r="D193" t="s">
-        <v>616</v>
-      </c>
-      <c r="F193" t="s">
-        <v>345</v>
-      </c>
       <c r="G193" t="s">
-        <v>263</v>
+        <v>178</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.2">
@@ -6737,19 +6737,19 @@
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C194" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D194" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F194">
         <v>4</v>
       </c>
       <c r="G194" t="s">
-        <v>347</v>
+        <v>178</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.2">
@@ -6757,19 +6757,19 @@
         <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C195" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D195" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F195">
         <v>2</v>
       </c>
       <c r="G195" t="s">
-        <v>347</v>
+        <v>178</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.2">
@@ -6777,19 +6777,19 @@
         <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C196" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D196" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F196">
         <v>24</v>
       </c>
       <c r="G196" t="s">
-        <v>347</v>
+        <v>178</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.2">
@@ -6797,19 +6797,19 @@
         <v>195</v>
       </c>
       <c r="B197" t="s">
+        <v>349</v>
+      </c>
+      <c r="C197" t="s">
+        <v>615</v>
+      </c>
+      <c r="D197" t="s">
+        <v>615</v>
+      </c>
+      <c r="F197" t="s">
         <v>350</v>
       </c>
-      <c r="C197" t="s">
-        <v>616</v>
-      </c>
-      <c r="D197" t="s">
-        <v>616</v>
-      </c>
-      <c r="F197" t="s">
-        <v>351</v>
-      </c>
       <c r="G197" t="s">
-        <v>347</v>
+        <v>178</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.2">
@@ -6817,19 +6817,19 @@
         <v>196</v>
       </c>
       <c r="B198" t="s">
+        <v>351</v>
+      </c>
+      <c r="C198" t="s">
+        <v>615</v>
+      </c>
+      <c r="D198" t="s">
+        <v>615</v>
+      </c>
+      <c r="F198" t="s">
         <v>352</v>
       </c>
-      <c r="C198" t="s">
-        <v>616</v>
-      </c>
-      <c r="D198" t="s">
-        <v>616</v>
-      </c>
-      <c r="F198" t="s">
-        <v>353</v>
-      </c>
       <c r="G198" t="s">
-        <v>347</v>
+        <v>428</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.2">
@@ -6837,19 +6837,19 @@
         <v>197</v>
       </c>
       <c r="B199" t="s">
+        <v>353</v>
+      </c>
+      <c r="C199" t="s">
+        <v>615</v>
+      </c>
+      <c r="D199" t="s">
+        <v>615</v>
+      </c>
+      <c r="F199" t="s">
         <v>354</v>
       </c>
-      <c r="C199" t="s">
-        <v>616</v>
-      </c>
-      <c r="D199" t="s">
-        <v>616</v>
-      </c>
-      <c r="F199" t="s">
-        <v>355</v>
-      </c>
       <c r="G199" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.2">
@@ -6857,19 +6857,19 @@
         <v>198</v>
       </c>
       <c r="B200" t="s">
+        <v>355</v>
+      </c>
+      <c r="C200" t="s">
+        <v>615</v>
+      </c>
+      <c r="D200" t="s">
+        <v>615</v>
+      </c>
+      <c r="F200" t="s">
         <v>356</v>
       </c>
-      <c r="C200" t="s">
-        <v>616</v>
-      </c>
-      <c r="D200" t="s">
-        <v>616</v>
-      </c>
-      <c r="F200" t="s">
-        <v>357</v>
-      </c>
       <c r="G200" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.2">
@@ -6877,19 +6877,19 @@
         <v>199</v>
       </c>
       <c r="B201" t="s">
+        <v>357</v>
+      </c>
+      <c r="C201" t="s">
+        <v>615</v>
+      </c>
+      <c r="D201" t="s">
+        <v>615</v>
+      </c>
+      <c r="F201" t="s">
         <v>358</v>
       </c>
-      <c r="C201" t="s">
-        <v>616</v>
-      </c>
-      <c r="D201" t="s">
-        <v>616</v>
-      </c>
-      <c r="F201" t="s">
-        <v>359</v>
-      </c>
       <c r="G201" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.2">
@@ -6897,19 +6897,19 @@
         <v>200</v>
       </c>
       <c r="B202" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C202" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D202" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F202">
         <v>19</v>
       </c>
       <c r="G202" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.2">
@@ -6917,22 +6917,22 @@
         <v>201</v>
       </c>
       <c r="B203" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C203">
         <v>10009</v>
       </c>
       <c r="D203" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E203" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="F203" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G203" t="s">
-        <v>347</v>
+        <v>3</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.2">
@@ -6940,22 +6940,22 @@
         <v>202</v>
       </c>
       <c r="B204" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C204">
         <v>10123</v>
       </c>
       <c r="D204" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E204" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="F204" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G204" t="s">
-        <v>347</v>
+        <v>262</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.2">
@@ -6963,19 +6963,19 @@
         <v>203</v>
       </c>
       <c r="B205" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C205" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D205" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F205">
         <v>28</v>
       </c>
       <c r="G205" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.2">
@@ -6983,19 +6983,19 @@
         <v>204</v>
       </c>
       <c r="B206" t="s">
+        <v>365</v>
+      </c>
+      <c r="C206" t="s">
+        <v>615</v>
+      </c>
+      <c r="D206" t="s">
+        <v>615</v>
+      </c>
+      <c r="F206" t="s">
         <v>366</v>
       </c>
-      <c r="C206" t="s">
-        <v>616</v>
-      </c>
-      <c r="D206" t="s">
-        <v>616</v>
-      </c>
-      <c r="F206" t="s">
-        <v>367</v>
-      </c>
       <c r="G206" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.2">
@@ -7003,19 +7003,19 @@
         <v>205</v>
       </c>
       <c r="B207" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C207" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D207" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F207">
         <v>34</v>
       </c>
       <c r="G207" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.2">
@@ -7023,19 +7023,19 @@
         <v>206</v>
       </c>
       <c r="B208" t="s">
+        <v>368</v>
+      </c>
+      <c r="C208" t="s">
+        <v>615</v>
+      </c>
+      <c r="D208" t="s">
+        <v>615</v>
+      </c>
+      <c r="F208" t="s">
         <v>369</v>
       </c>
-      <c r="C208" t="s">
-        <v>616</v>
-      </c>
-      <c r="D208" t="s">
-        <v>616</v>
-      </c>
-      <c r="F208" t="s">
-        <v>370</v>
-      </c>
       <c r="G208" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.2">
@@ -7043,19 +7043,19 @@
         <v>207</v>
       </c>
       <c r="B209" t="s">
+        <v>370</v>
+      </c>
+      <c r="C209" t="s">
+        <v>615</v>
+      </c>
+      <c r="D209" t="s">
+        <v>615</v>
+      </c>
+      <c r="F209" t="s">
         <v>371</v>
       </c>
-      <c r="C209" t="s">
-        <v>616</v>
-      </c>
-      <c r="D209" t="s">
-        <v>616</v>
-      </c>
-      <c r="F209" t="s">
-        <v>372</v>
-      </c>
       <c r="G209" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.2">
@@ -7063,19 +7063,19 @@
         <v>208</v>
       </c>
       <c r="B210" t="s">
+        <v>372</v>
+      </c>
+      <c r="C210" t="s">
+        <v>615</v>
+      </c>
+      <c r="D210" t="s">
+        <v>615</v>
+      </c>
+      <c r="F210" t="s">
         <v>373</v>
       </c>
-      <c r="C210" t="s">
-        <v>616</v>
-      </c>
-      <c r="D210" t="s">
-        <v>616</v>
-      </c>
-      <c r="F210" t="s">
-        <v>374</v>
-      </c>
       <c r="G210" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.2">
@@ -7083,19 +7083,19 @@
         <v>209</v>
       </c>
       <c r="B211" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C211" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D211" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F211" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G211" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.2">
@@ -7103,19 +7103,19 @@
         <v>210</v>
       </c>
       <c r="B212" t="s">
+        <v>375</v>
+      </c>
+      <c r="C212" t="s">
+        <v>615</v>
+      </c>
+      <c r="D212" t="s">
+        <v>615</v>
+      </c>
+      <c r="F212" t="s">
         <v>376</v>
       </c>
-      <c r="C212" t="s">
-        <v>616</v>
-      </c>
-      <c r="D212" t="s">
-        <v>616</v>
-      </c>
-      <c r="F212" t="s">
-        <v>377</v>
-      </c>
       <c r="G212" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.2">
@@ -7123,22 +7123,22 @@
         <v>211</v>
       </c>
       <c r="B213" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C213">
         <v>10025</v>
       </c>
       <c r="D213" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E213" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="F213" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G213" t="s">
-        <v>347</v>
+        <v>3</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.2">
@@ -7146,19 +7146,19 @@
         <v>212</v>
       </c>
       <c r="B214" t="s">
+        <v>379</v>
+      </c>
+      <c r="C214" t="s">
+        <v>615</v>
+      </c>
+      <c r="D214" t="s">
+        <v>615</v>
+      </c>
+      <c r="F214" t="s">
         <v>380</v>
       </c>
-      <c r="C214" t="s">
-        <v>616</v>
-      </c>
-      <c r="D214" t="s">
-        <v>616</v>
-      </c>
-      <c r="F214" t="s">
-        <v>381</v>
-      </c>
       <c r="G214" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.2">
@@ -7166,19 +7166,19 @@
         <v>213</v>
       </c>
       <c r="B215" t="s">
+        <v>381</v>
+      </c>
+      <c r="C215" t="s">
+        <v>615</v>
+      </c>
+      <c r="D215" t="s">
+        <v>615</v>
+      </c>
+      <c r="F215" t="s">
         <v>382</v>
       </c>
-      <c r="C215" t="s">
-        <v>616</v>
-      </c>
-      <c r="D215" t="s">
-        <v>616</v>
-      </c>
-      <c r="F215" t="s">
-        <v>383</v>
-      </c>
       <c r="G215" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.2">
@@ -7186,19 +7186,19 @@
         <v>214</v>
       </c>
       <c r="B216" t="s">
+        <v>383</v>
+      </c>
+      <c r="C216" t="s">
+        <v>615</v>
+      </c>
+      <c r="D216" t="s">
+        <v>615</v>
+      </c>
+      <c r="F216" t="s">
         <v>384</v>
       </c>
-      <c r="C216" t="s">
-        <v>616</v>
-      </c>
-      <c r="D216" t="s">
-        <v>616</v>
-      </c>
-      <c r="F216" t="s">
-        <v>385</v>
-      </c>
       <c r="G216" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.2">
@@ -7206,19 +7206,19 @@
         <v>215</v>
       </c>
       <c r="B217" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C217" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D217" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F217">
         <v>21</v>
       </c>
       <c r="G217" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.2">
@@ -7226,19 +7226,19 @@
         <v>216</v>
       </c>
       <c r="B218" t="s">
+        <v>386</v>
+      </c>
+      <c r="C218" t="s">
+        <v>615</v>
+      </c>
+      <c r="D218" t="s">
+        <v>615</v>
+      </c>
+      <c r="F218" t="s">
         <v>387</v>
       </c>
-      <c r="C218" t="s">
-        <v>616</v>
-      </c>
-      <c r="D218" t="s">
-        <v>616</v>
-      </c>
-      <c r="F218" t="s">
-        <v>388</v>
-      </c>
       <c r="G218" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.2">
@@ -7246,19 +7246,19 @@
         <v>217</v>
       </c>
       <c r="B219" t="s">
+        <v>388</v>
+      </c>
+      <c r="C219" t="s">
+        <v>615</v>
+      </c>
+      <c r="D219" t="s">
+        <v>615</v>
+      </c>
+      <c r="F219" t="s">
         <v>389</v>
       </c>
-      <c r="C219" t="s">
-        <v>616</v>
-      </c>
-      <c r="D219" t="s">
-        <v>616</v>
-      </c>
-      <c r="F219" t="s">
-        <v>390</v>
-      </c>
       <c r="G219" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.2">
@@ -7266,19 +7266,19 @@
         <v>218</v>
       </c>
       <c r="B220" t="s">
+        <v>390</v>
+      </c>
+      <c r="C220" t="s">
+        <v>615</v>
+      </c>
+      <c r="D220" t="s">
+        <v>615</v>
+      </c>
+      <c r="F220" t="s">
         <v>391</v>
       </c>
-      <c r="C220" t="s">
-        <v>616</v>
-      </c>
-      <c r="D220" t="s">
-        <v>616</v>
-      </c>
-      <c r="F220" t="s">
-        <v>392</v>
-      </c>
       <c r="G220" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.2">
@@ -7286,19 +7286,19 @@
         <v>219</v>
       </c>
       <c r="B221" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C221" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D221" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F221">
         <v>16</v>
       </c>
       <c r="G221" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.2">
@@ -7306,19 +7306,19 @@
         <v>220</v>
       </c>
       <c r="B222" t="s">
+        <v>393</v>
+      </c>
+      <c r="C222" t="s">
+        <v>615</v>
+      </c>
+      <c r="D222" t="s">
+        <v>615</v>
+      </c>
+      <c r="F222" t="s">
         <v>394</v>
       </c>
-      <c r="C222" t="s">
-        <v>616</v>
-      </c>
-      <c r="D222" t="s">
-        <v>616</v>
-      </c>
-      <c r="F222" t="s">
-        <v>395</v>
-      </c>
       <c r="G222" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.2">
@@ -7326,22 +7326,22 @@
         <v>221</v>
       </c>
       <c r="B223" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C223">
         <v>10134</v>
       </c>
       <c r="D223" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E223" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="F223">
         <v>21</v>
       </c>
       <c r="G223" t="s">
-        <v>347</v>
+        <v>262</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.2">
@@ -7349,19 +7349,19 @@
         <v>222</v>
       </c>
       <c r="B224" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C224" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D224" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F224">
         <v>23</v>
       </c>
       <c r="G224" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.2">
@@ -7369,19 +7369,19 @@
         <v>223</v>
       </c>
       <c r="B225" t="s">
+        <v>397</v>
+      </c>
+      <c r="C225" t="s">
+        <v>615</v>
+      </c>
+      <c r="D225" t="s">
+        <v>615</v>
+      </c>
+      <c r="F225" t="s">
         <v>398</v>
       </c>
-      <c r="C225" t="s">
-        <v>616</v>
-      </c>
-      <c r="D225" t="s">
-        <v>616</v>
-      </c>
-      <c r="F225" t="s">
-        <v>399</v>
-      </c>
       <c r="G225" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.2">
@@ -7389,19 +7389,19 @@
         <v>224</v>
       </c>
       <c r="B226" t="s">
+        <v>399</v>
+      </c>
+      <c r="C226" t="s">
+        <v>615</v>
+      </c>
+      <c r="D226" t="s">
+        <v>615</v>
+      </c>
+      <c r="F226" t="s">
         <v>400</v>
       </c>
-      <c r="C226" t="s">
-        <v>616</v>
-      </c>
-      <c r="D226" t="s">
-        <v>616</v>
-      </c>
-      <c r="F226" t="s">
-        <v>401</v>
-      </c>
       <c r="G226" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.2">
@@ -7409,19 +7409,19 @@
         <v>225</v>
       </c>
       <c r="B227" t="s">
+        <v>401</v>
+      </c>
+      <c r="C227" t="s">
+        <v>615</v>
+      </c>
+      <c r="D227" t="s">
+        <v>615</v>
+      </c>
+      <c r="F227" t="s">
         <v>402</v>
       </c>
-      <c r="C227" t="s">
-        <v>616</v>
-      </c>
-      <c r="D227" t="s">
-        <v>616</v>
-      </c>
-      <c r="F227" t="s">
-        <v>403</v>
-      </c>
       <c r="G227" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.2">
@@ -7429,19 +7429,19 @@
         <v>226</v>
       </c>
       <c r="B228" t="s">
+        <v>403</v>
+      </c>
+      <c r="C228" t="s">
+        <v>615</v>
+      </c>
+      <c r="D228" t="s">
+        <v>615</v>
+      </c>
+      <c r="F228" t="s">
         <v>404</v>
       </c>
-      <c r="C228" t="s">
-        <v>616</v>
-      </c>
-      <c r="D228" t="s">
-        <v>616</v>
-      </c>
-      <c r="F228" t="s">
-        <v>405</v>
-      </c>
       <c r="G228" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.2">
@@ -7449,19 +7449,19 @@
         <v>227</v>
       </c>
       <c r="B229" t="s">
+        <v>405</v>
+      </c>
+      <c r="C229" t="s">
+        <v>615</v>
+      </c>
+      <c r="D229" t="s">
+        <v>615</v>
+      </c>
+      <c r="F229" t="s">
         <v>406</v>
       </c>
-      <c r="C229" t="s">
-        <v>616</v>
-      </c>
-      <c r="D229" t="s">
-        <v>616</v>
-      </c>
-      <c r="F229" t="s">
-        <v>407</v>
-      </c>
       <c r="G229" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.2">
@@ -7469,19 +7469,19 @@
         <v>228</v>
       </c>
       <c r="B230" t="s">
+        <v>407</v>
+      </c>
+      <c r="C230" t="s">
+        <v>615</v>
+      </c>
+      <c r="D230" t="s">
+        <v>615</v>
+      </c>
+      <c r="F230" t="s">
         <v>408</v>
       </c>
-      <c r="C230" t="s">
-        <v>616</v>
-      </c>
-      <c r="D230" t="s">
-        <v>616</v>
-      </c>
-      <c r="F230" t="s">
-        <v>409</v>
-      </c>
       <c r="G230" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.2">
@@ -7489,19 +7489,19 @@
         <v>229</v>
       </c>
       <c r="B231" t="s">
+        <v>409</v>
+      </c>
+      <c r="C231" t="s">
+        <v>615</v>
+      </c>
+      <c r="D231" t="s">
+        <v>615</v>
+      </c>
+      <c r="F231" t="s">
         <v>410</v>
       </c>
-      <c r="C231" t="s">
-        <v>616</v>
-      </c>
-      <c r="D231" t="s">
-        <v>616</v>
-      </c>
-      <c r="F231" t="s">
-        <v>411</v>
-      </c>
       <c r="G231" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.2">
@@ -7509,19 +7509,19 @@
         <v>230</v>
       </c>
       <c r="B232" t="s">
+        <v>411</v>
+      </c>
+      <c r="C232" t="s">
+        <v>615</v>
+      </c>
+      <c r="D232" t="s">
+        <v>615</v>
+      </c>
+      <c r="F232" t="s">
         <v>412</v>
       </c>
-      <c r="C232" t="s">
-        <v>616</v>
-      </c>
-      <c r="D232" t="s">
-        <v>616</v>
-      </c>
-      <c r="F232" t="s">
-        <v>413</v>
-      </c>
       <c r="G232" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.2">
@@ -7529,19 +7529,19 @@
         <v>231</v>
       </c>
       <c r="B233" t="s">
+        <v>413</v>
+      </c>
+      <c r="C233" t="s">
+        <v>615</v>
+      </c>
+      <c r="D233" t="s">
+        <v>615</v>
+      </c>
+      <c r="F233" t="s">
         <v>414</v>
       </c>
-      <c r="C233" t="s">
-        <v>616</v>
-      </c>
-      <c r="D233" t="s">
-        <v>616</v>
-      </c>
-      <c r="F233" t="s">
-        <v>415</v>
-      </c>
       <c r="G233" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.2">
@@ -7549,19 +7549,19 @@
         <v>232</v>
       </c>
       <c r="B234" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C234" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D234" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F234" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G234" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.2">
@@ -7569,19 +7569,19 @@
         <v>233</v>
       </c>
       <c r="B235" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C235" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D235" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F235">
         <v>14</v>
       </c>
       <c r="G235" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.2">
@@ -7589,19 +7589,19 @@
         <v>234</v>
       </c>
       <c r="B236" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C236" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D236" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F236">
         <v>32</v>
       </c>
       <c r="G236" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.2">
@@ -7609,19 +7609,19 @@
         <v>235</v>
       </c>
       <c r="B237" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C237" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D237" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F237">
         <v>35</v>
       </c>
       <c r="G237" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.2">
@@ -7629,19 +7629,19 @@
         <v>236</v>
       </c>
       <c r="B238" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C238" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D238" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F238">
         <v>32</v>
       </c>
       <c r="G238" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.2">
@@ -7649,22 +7649,22 @@
         <v>237</v>
       </c>
       <c r="B239" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C239">
         <v>10087</v>
       </c>
       <c r="D239" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E239" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="F239" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="G239" t="s">
-        <v>347</v>
+        <v>94</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.2">
@@ -7672,19 +7672,19 @@
         <v>238</v>
       </c>
       <c r="B240" t="s">
+        <v>422</v>
+      </c>
+      <c r="C240" t="s">
+        <v>615</v>
+      </c>
+      <c r="D240" t="s">
+        <v>615</v>
+      </c>
+      <c r="F240" t="s">
         <v>423</v>
       </c>
-      <c r="C240" t="s">
-        <v>616</v>
-      </c>
-      <c r="D240" t="s">
-        <v>616</v>
-      </c>
-      <c r="F240" t="s">
-        <v>424</v>
-      </c>
       <c r="G240" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.2">
@@ -7692,22 +7692,22 @@
         <v>239</v>
       </c>
       <c r="B241" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C241">
         <v>10079</v>
       </c>
       <c r="D241" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E241" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="F241" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G241" t="s">
-        <v>347</v>
+        <v>94</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.2">
@@ -7715,19 +7715,19 @@
         <v>240</v>
       </c>
       <c r="B242" t="s">
+        <v>426</v>
+      </c>
+      <c r="C242" t="s">
+        <v>615</v>
+      </c>
+      <c r="D242" t="s">
+        <v>615</v>
+      </c>
+      <c r="F242" t="s">
         <v>427</v>
       </c>
-      <c r="C242" t="s">
-        <v>616</v>
-      </c>
-      <c r="D242" t="s">
-        <v>616</v>
-      </c>
-      <c r="F242" t="s">
-        <v>428</v>
-      </c>
       <c r="G242" t="s">
-        <v>429</v>
+        <v>346</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.2">
@@ -7735,22 +7735,22 @@
         <v>241</v>
       </c>
       <c r="B243" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C243">
         <v>10088</v>
       </c>
       <c r="D243" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E243" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="F243" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="G243" t="s">
-        <v>429</v>
+        <v>94</v>
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.2">
@@ -7758,19 +7758,19 @@
         <v>242</v>
       </c>
       <c r="B244" t="s">
+        <v>431</v>
+      </c>
+      <c r="C244" t="s">
+        <v>615</v>
+      </c>
+      <c r="D244" t="s">
+        <v>615</v>
+      </c>
+      <c r="F244" t="s">
         <v>432</v>
       </c>
-      <c r="C244" t="s">
-        <v>616</v>
-      </c>
-      <c r="D244" t="s">
-        <v>616</v>
-      </c>
-      <c r="F244" t="s">
-        <v>433</v>
-      </c>
       <c r="G244" t="s">
-        <v>429</v>
+        <v>346</v>
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.2">
@@ -7778,19 +7778,19 @@
         <v>243</v>
       </c>
       <c r="B245" t="s">
+        <v>433</v>
+      </c>
+      <c r="C245" t="s">
+        <v>615</v>
+      </c>
+      <c r="D245" t="s">
+        <v>615</v>
+      </c>
+      <c r="F245" t="s">
         <v>434</v>
       </c>
-      <c r="C245" t="s">
-        <v>616</v>
-      </c>
-      <c r="D245" t="s">
-        <v>616</v>
-      </c>
-      <c r="F245" t="s">
-        <v>435</v>
-      </c>
       <c r="G245" t="s">
-        <v>429</v>
+        <v>346</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.2">
@@ -7798,19 +7798,19 @@
         <v>244</v>
       </c>
       <c r="B246" t="s">
+        <v>435</v>
+      </c>
+      <c r="C246" t="s">
+        <v>615</v>
+      </c>
+      <c r="D246" t="s">
+        <v>615</v>
+      </c>
+      <c r="F246" t="s">
         <v>436</v>
       </c>
-      <c r="C246" t="s">
-        <v>616</v>
-      </c>
-      <c r="D246" t="s">
-        <v>616</v>
-      </c>
-      <c r="F246" t="s">
-        <v>437</v>
-      </c>
       <c r="G246" t="s">
-        <v>429</v>
+        <v>346</v>
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.2">
@@ -7818,22 +7818,22 @@
         <v>245</v>
       </c>
       <c r="B247" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C247">
         <v>10010</v>
       </c>
       <c r="D247" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E247" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="F247">
         <v>9</v>
       </c>
       <c r="G247" t="s">
-        <v>429</v>
+        <v>3</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.2">
@@ -7841,19 +7841,19 @@
         <v>246</v>
       </c>
       <c r="B248" t="s">
+        <v>438</v>
+      </c>
+      <c r="C248" t="s">
+        <v>615</v>
+      </c>
+      <c r="D248" t="s">
+        <v>615</v>
+      </c>
+      <c r="F248" t="s">
         <v>439</v>
       </c>
-      <c r="C248" t="s">
-        <v>616</v>
-      </c>
-      <c r="D248" t="s">
-        <v>616</v>
-      </c>
-      <c r="F248" t="s">
-        <v>440</v>
-      </c>
       <c r="G248" t="s">
-        <v>429</v>
+        <v>346</v>
       </c>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.2">
@@ -7861,19 +7861,19 @@
         <v>247</v>
       </c>
       <c r="B249" t="s">
+        <v>440</v>
+      </c>
+      <c r="C249" t="s">
+        <v>615</v>
+      </c>
+      <c r="D249" t="s">
+        <v>615</v>
+      </c>
+      <c r="F249" t="s">
         <v>441</v>
       </c>
-      <c r="C249" t="s">
-        <v>616</v>
-      </c>
-      <c r="D249" t="s">
-        <v>616</v>
-      </c>
-      <c r="F249" t="s">
-        <v>442</v>
-      </c>
       <c r="G249" t="s">
-        <v>429</v>
+        <v>346</v>
       </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.2">
@@ -7881,22 +7881,22 @@
         <v>248</v>
       </c>
       <c r="B250" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C250">
         <v>10021</v>
       </c>
       <c r="D250" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E250" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="F250" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G250" t="s">
-        <v>429</v>
+        <v>3</v>
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.2">
@@ -7904,22 +7904,22 @@
         <v>249</v>
       </c>
       <c r="B251" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C251">
         <v>10122</v>
       </c>
       <c r="D251" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E251" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="F251" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="G251" t="s">
-        <v>429</v>
+        <v>262</v>
       </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.2">
@@ -7927,22 +7927,22 @@
         <v>250</v>
       </c>
       <c r="B252" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C252">
         <v>10020</v>
       </c>
       <c r="D252" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E252" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="F252" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="G252" t="s">
-        <v>429</v>
+        <v>3</v>
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.2">
@@ -7950,22 +7950,22 @@
         <v>251</v>
       </c>
       <c r="B253" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C253">
         <v>10025</v>
       </c>
       <c r="D253" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E253" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="F253">
         <v>23</v>
       </c>
       <c r="G253" t="s">
-        <v>429</v>
+        <v>3</v>
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.2">
@@ -7973,19 +7973,19 @@
         <v>252</v>
       </c>
       <c r="B254" t="s">
+        <v>449</v>
+      </c>
+      <c r="C254" t="s">
+        <v>615</v>
+      </c>
+      <c r="D254" t="s">
+        <v>615</v>
+      </c>
+      <c r="F254" t="s">
         <v>450</v>
       </c>
-      <c r="C254" t="s">
-        <v>616</v>
-      </c>
-      <c r="D254" t="s">
-        <v>616</v>
-      </c>
-      <c r="F254" t="s">
-        <v>451</v>
-      </c>
       <c r="G254" t="s">
-        <v>429</v>
+        <v>346</v>
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.2">
@@ -7993,22 +7993,22 @@
         <v>253</v>
       </c>
       <c r="B255" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C255">
         <v>10049</v>
       </c>
       <c r="D255" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E255" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="F255" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="G255" t="s">
-        <v>429</v>
+        <v>94</v>
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.2">
@@ -8016,22 +8016,22 @@
         <v>254</v>
       </c>
       <c r="B256" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C256">
         <v>10087</v>
       </c>
       <c r="D256" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E256" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="F256" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="G256" t="s">
-        <v>429</v>
+        <v>94</v>
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.2">
@@ -8039,22 +8039,22 @@
         <v>255</v>
       </c>
       <c r="B257" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C257">
         <v>10009</v>
       </c>
       <c r="D257" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E257" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F257">
         <v>26</v>
       </c>
       <c r="G257" t="s">
-        <v>429</v>
+        <v>3</v>
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.2">
@@ -8062,22 +8062,22 @@
         <v>256</v>
       </c>
       <c r="B258" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C258">
         <v>10022</v>
       </c>
       <c r="D258" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E258" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="F258" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G258" t="s">
-        <v>429</v>
+        <v>3</v>
       </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.2">
@@ -8085,22 +8085,22 @@
         <v>257</v>
       </c>
       <c r="B259" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C259">
         <v>10090</v>
       </c>
       <c r="D259" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E259" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="F259">
         <v>19</v>
       </c>
       <c r="G259" t="s">
-        <v>429</v>
+        <v>94</v>
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.2">
@@ -8108,22 +8108,22 @@
         <v>258</v>
       </c>
       <c r="B260" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C260">
         <v>10137</v>
       </c>
       <c r="D260" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E260" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="F260" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="G260" t="s">
-        <v>429</v>
+        <v>262</v>
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.2">
@@ -8131,22 +8131,22 @@
         <v>259</v>
       </c>
       <c r="B261" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C261">
         <v>10054</v>
       </c>
       <c r="D261" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E261" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="F261">
         <v>7</v>
       </c>
       <c r="G261" t="s">
-        <v>429</v>
+        <v>94</v>
       </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.2">
@@ -8154,22 +8154,22 @@
         <v>260</v>
       </c>
       <c r="B262" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C262">
         <v>10152</v>
       </c>
       <c r="D262" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E262" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="F262" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G262" t="s">
-        <v>429</v>
+        <v>262</v>
       </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.2">
@@ -8177,22 +8177,22 @@
         <v>261</v>
       </c>
       <c r="B263" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C263">
         <v>10159</v>
       </c>
       <c r="D263" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E263" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F263" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="G263" t="s">
-        <v>429</v>
+        <v>262</v>
       </c>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.2">
@@ -8200,22 +8200,22 @@
         <v>262</v>
       </c>
       <c r="B264" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C264">
         <v>10163</v>
       </c>
       <c r="D264" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E264" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="F264" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="G264" t="s">
-        <v>429</v>
+        <v>262</v>
       </c>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.2">
@@ -8223,19 +8223,19 @@
         <v>263</v>
       </c>
       <c r="B265" t="s">
+        <v>468</v>
+      </c>
+      <c r="C265" t="s">
+        <v>615</v>
+      </c>
+      <c r="D265" t="s">
+        <v>615</v>
+      </c>
+      <c r="F265" t="s">
         <v>469</v>
       </c>
-      <c r="C265" t="s">
-        <v>616</v>
-      </c>
-      <c r="D265" t="s">
-        <v>616</v>
-      </c>
-      <c r="F265" t="s">
-        <v>470</v>
-      </c>
       <c r="G265" t="s">
-        <v>429</v>
+        <v>346</v>
       </c>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.2">
@@ -8243,22 +8243,22 @@
         <v>264</v>
       </c>
       <c r="B266" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C266">
         <v>10142</v>
       </c>
       <c r="D266" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E266" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="F266" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="G266" t="s">
-        <v>429</v>
+        <v>262</v>
       </c>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.2">
@@ -8266,22 +8266,22 @@
         <v>265</v>
       </c>
       <c r="B267" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C267">
         <v>10109</v>
       </c>
       <c r="D267" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E267" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="F267" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="G267" t="s">
-        <v>429</v>
+        <v>94</v>
       </c>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.2">
@@ -8289,19 +8289,19 @@
         <v>266</v>
       </c>
       <c r="B268" t="s">
+        <v>474</v>
+      </c>
+      <c r="C268" t="s">
+        <v>615</v>
+      </c>
+      <c r="D268" t="s">
+        <v>615</v>
+      </c>
+      <c r="F268" t="s">
         <v>475</v>
       </c>
-      <c r="C268" t="s">
-        <v>616</v>
-      </c>
-      <c r="D268" t="s">
-        <v>616</v>
-      </c>
-      <c r="F268" t="s">
-        <v>476</v>
-      </c>
       <c r="G268" t="s">
-        <v>429</v>
+        <v>346</v>
       </c>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.2">
@@ -8309,19 +8309,19 @@
         <v>267</v>
       </c>
       <c r="B269" t="s">
+        <v>476</v>
+      </c>
+      <c r="C269" t="s">
+        <v>615</v>
+      </c>
+      <c r="D269" t="s">
+        <v>615</v>
+      </c>
+      <c r="F269" t="s">
         <v>477</v>
       </c>
-      <c r="C269" t="s">
-        <v>616</v>
-      </c>
-      <c r="D269" t="s">
-        <v>616</v>
-      </c>
-      <c r="F269" t="s">
-        <v>478</v>
-      </c>
       <c r="G269" t="s">
-        <v>429</v>
+        <v>346</v>
       </c>
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.2">
@@ -8329,22 +8329,22 @@
         <v>268</v>
       </c>
       <c r="B270" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C270">
         <v>10085</v>
       </c>
       <c r="D270" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E270" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="F270" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="G270" t="s">
-        <v>429</v>
+        <v>94</v>
       </c>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.2">
@@ -8352,22 +8352,22 @@
         <v>269</v>
       </c>
       <c r="B271" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C271">
         <v>10064</v>
       </c>
       <c r="D271" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E271" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F271" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="G271" t="s">
-        <v>429</v>
+        <v>94</v>
       </c>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.2">
@@ -8375,22 +8375,22 @@
         <v>270</v>
       </c>
       <c r="B272" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C272">
         <v>10053</v>
       </c>
       <c r="D272" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E272" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="F272" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="G272" t="s">
-        <v>429</v>
+        <v>94</v>
       </c>
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.2">
@@ -8398,22 +8398,22 @@
         <v>271</v>
       </c>
       <c r="B273" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C273">
         <v>10079</v>
       </c>
       <c r="D273" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E273" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="F273" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G273" t="s">
-        <v>429</v>
+        <v>94</v>
       </c>
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.2">
@@ -8421,22 +8421,22 @@
         <v>272</v>
       </c>
       <c r="B274" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C274">
         <v>10139</v>
       </c>
       <c r="D274" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E274" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="F274" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="G274" t="s">
-        <v>429</v>
+        <v>262</v>
       </c>
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.2">
@@ -8444,22 +8444,22 @@
         <v>273</v>
       </c>
       <c r="B275" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C275">
         <v>10082</v>
       </c>
       <c r="D275" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E275" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F275" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="G275" t="s">
-        <v>429</v>
+        <v>94</v>
       </c>
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.2">
@@ -8467,22 +8467,22 @@
         <v>274</v>
       </c>
       <c r="B276" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C276">
         <v>10137</v>
       </c>
       <c r="D276" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E276" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="F276" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="G276" t="s">
-        <v>429</v>
+        <v>262</v>
       </c>
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.2">
@@ -8490,22 +8490,22 @@
         <v>275</v>
       </c>
       <c r="B277" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C277">
         <v>10110</v>
       </c>
       <c r="D277" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E277" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="F277" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="G277" t="s">
-        <v>429</v>
+        <v>94</v>
       </c>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.2">
@@ -8513,22 +8513,22 @@
         <v>276</v>
       </c>
       <c r="B278" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C278">
         <v>10167</v>
       </c>
       <c r="D278" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E278" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="F278" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="G278" t="s">
-        <v>429</v>
+        <v>262</v>
       </c>
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.2">
@@ -8536,22 +8536,22 @@
         <v>277</v>
       </c>
       <c r="B279" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C279">
         <v>10027</v>
       </c>
       <c r="D279" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E279" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="F279" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="G279" t="s">
-        <v>429</v>
+        <v>3</v>
       </c>
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.2">
@@ -8559,22 +8559,22 @@
         <v>278</v>
       </c>
       <c r="B280" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C280">
         <v>10021</v>
       </c>
       <c r="D280" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E280" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F280">
         <v>33</v>
       </c>
       <c r="G280" t="s">
-        <v>429</v>
+        <v>3</v>
       </c>
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.2">
@@ -8582,22 +8582,22 @@
         <v>279</v>
       </c>
       <c r="B281" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C281">
         <v>10127</v>
       </c>
       <c r="D281" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E281" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="F281" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G281" t="s">
-        <v>429</v>
+        <v>262</v>
       </c>
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.2">
@@ -8605,22 +8605,22 @@
         <v>280</v>
       </c>
       <c r="B282" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C282">
         <v>10022</v>
       </c>
       <c r="D282" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E282" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="F282" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="G282" t="s">
-        <v>429</v>
+        <v>3</v>
       </c>
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.2">
@@ -8628,22 +8628,22 @@
         <v>281</v>
       </c>
       <c r="B283" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C283">
         <v>10090</v>
       </c>
       <c r="D283" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E283" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="F283" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="G283" t="s">
-        <v>429</v>
+        <v>94</v>
       </c>
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.2">
@@ -8651,22 +8651,22 @@
         <v>282</v>
       </c>
       <c r="B284" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C284">
         <v>10148</v>
       </c>
       <c r="D284" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E284" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="F284" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G284" t="s">
-        <v>429</v>
+        <v>262</v>
       </c>
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.2">
@@ -8674,22 +8674,22 @@
         <v>283</v>
       </c>
       <c r="B285" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C285">
         <v>10152</v>
       </c>
       <c r="D285" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E285" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="F285" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="G285" t="s">
-        <v>429</v>
+        <v>262</v>
       </c>
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.2">
@@ -8697,22 +8697,22 @@
         <v>284</v>
       </c>
       <c r="B286" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C286">
         <v>10161</v>
       </c>
       <c r="D286" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E286" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="F286" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="G286" t="s">
-        <v>429</v>
+        <v>262</v>
       </c>
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.2">
@@ -8720,19 +8720,19 @@
         <v>285</v>
       </c>
       <c r="B287" t="s">
+        <v>511</v>
+      </c>
+      <c r="C287" t="s">
+        <v>615</v>
+      </c>
+      <c r="D287" t="s">
+        <v>615</v>
+      </c>
+      <c r="F287" t="s">
         <v>512</v>
       </c>
-      <c r="C287" t="s">
-        <v>616</v>
-      </c>
-      <c r="D287" t="s">
-        <v>616</v>
-      </c>
-      <c r="F287" t="s">
-        <v>513</v>
-      </c>
       <c r="G287" t="s">
-        <v>429</v>
+        <v>346</v>
       </c>
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.2">
@@ -8740,22 +8740,22 @@
         <v>286</v>
       </c>
       <c r="B288" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C288">
         <v>10174</v>
       </c>
       <c r="D288" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E288" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="F288">
         <v>7</v>
       </c>
       <c r="G288" t="s">
-        <v>429</v>
+        <v>262</v>
       </c>
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.2">
@@ -8763,22 +8763,22 @@
         <v>287</v>
       </c>
       <c r="B289" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C289">
         <v>10176</v>
       </c>
       <c r="D289" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E289" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="F289" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="G289" t="s">
-        <v>429</v>
+        <v>262</v>
       </c>
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.2">
@@ -8786,19 +8786,19 @@
         <v>288</v>
       </c>
       <c r="B290" t="s">
+        <v>516</v>
+      </c>
+      <c r="C290" t="s">
+        <v>615</v>
+      </c>
+      <c r="D290" t="s">
+        <v>615</v>
+      </c>
+      <c r="F290" t="s">
         <v>517</v>
       </c>
-      <c r="C290" t="s">
-        <v>616</v>
-      </c>
-      <c r="D290" t="s">
-        <v>616</v>
-      </c>
-      <c r="F290" t="s">
-        <v>518</v>
-      </c>
       <c r="G290" t="s">
-        <v>429</v>
+        <v>346</v>
       </c>
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.2">
@@ -8806,22 +8806,22 @@
         <v>289</v>
       </c>
       <c r="B291" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C291">
         <v>10180</v>
       </c>
       <c r="D291" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E291" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="F291" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="G291" t="s">
-        <v>429</v>
+        <v>262</v>
       </c>
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.2">
@@ -8829,26 +8829,30 @@
         <v>290</v>
       </c>
       <c r="B292" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C292">
         <v>10179</v>
       </c>
       <c r="D292" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E292" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F292" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="G292" t="s">
-        <v>429</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K292"/>
+  <autoFilter ref="A1:K292" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G292">
+      <sortCondition ref="A1:A292"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>